--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFD82BD-7F04-4256-A9B3-2A11350AA4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C9D78B-BA6C-4345-B30C-FE8F20D9B296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -475,8 +475,8 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1526,13 +1526,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1">
-        <v>-1</v>
+        <v>0.23</v>
       </c>
       <c r="E24" s="2">
         <v>230</v>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C9D78B-BA6C-4345-B30C-FE8F20D9B296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56612A4-4090-40B0-BA04-E77C7FE9E4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1570,13 +1570,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1">
-        <v>-1</v>
+        <v>0.24</v>
       </c>
       <c r="E25" s="2">
         <v>240</v>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56612A4-4090-40B0-BA04-E77C7FE9E4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0336EDBD-BBA8-42E9-A08A-5C2CD7C0558E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicSpecial" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1614,13 +1614,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="D26" s="1">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="E26" s="2">
         <v>250</v>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0336EDBD-BBA8-42E9-A08A-5C2CD7C0558E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86911CEE-6DBA-4A46-BE63-7C6B2A979CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1450,7 @@
         <v>210</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ref="F22:F31" si="5">F21</f>
+        <f t="shared" ref="F22:F41" si="5">F21</f>
         <v>70</v>
       </c>
       <c r="G22" s="1">
@@ -1460,7 +1460,7 @@
         <v>209</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I31" si="6">I21</f>
+        <f t="shared" ref="I22:I41" si="6">I21</f>
         <v>71</v>
       </c>
       <c r="J22" s="1">
@@ -1470,7 +1470,7 @@
         <v>209</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" ref="L22:L31" si="7">L21</f>
+        <f t="shared" ref="L22:L41" si="7">L21</f>
         <v>82</v>
       </c>
       <c r="M22" s="1">
@@ -1658,13 +1658,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1">
-        <v>-1</v>
+        <v>0.26</v>
       </c>
       <c r="E27" s="2">
         <v>260</v>
@@ -1871,6 +1871,446 @@
       </c>
       <c r="M31" s="1">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>310</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="H32" s="2">
+        <v>309</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="K32" s="2">
+        <v>309</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>320</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="H33" s="2">
+        <v>319</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="K33" s="2">
+        <v>319</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>330</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="H34" s="2">
+        <v>329</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="K34" s="2">
+        <v>329</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>340</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="H35" s="2">
+        <v>339</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="K35" s="2">
+        <v>339</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>350</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="H36" s="2">
+        <v>349</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="K36" s="2">
+        <v>349</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>360</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H37" s="2">
+        <v>359</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="K37" s="2">
+        <v>359</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>370</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="H38" s="2">
+        <v>369</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="K38" s="2">
+        <v>369</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>380</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H39" s="2">
+        <v>379</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="K39" s="2">
+        <v>379</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>390</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="H40" s="2">
+        <v>389</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="K40" s="2">
+        <v>389</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>400</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H41" s="2">
+        <v>399</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K41" s="2">
+        <v>399</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86911CEE-6DBA-4A46-BE63-7C6B2A979CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A0DBF-D290-4DC2-A905-FB197708D40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicSpecial" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1702,13 +1702,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1">
-        <v>-1</v>
+        <v>0.27</v>
       </c>
       <c r="E28" s="2">
         <v>270</v>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A0DBF-D290-4DC2-A905-FB197708D40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A62A20E-2F4B-486D-846A-0589C7B8CC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1450,7 @@
         <v>210</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ref="F22:F41" si="5">F21</f>
+        <f t="shared" ref="F22:F51" si="5">F21</f>
         <v>70</v>
       </c>
       <c r="G22" s="1">
@@ -1460,7 +1460,7 @@
         <v>209</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I41" si="6">I21</f>
+        <f t="shared" ref="I22:I51" si="6">I21</f>
         <v>71</v>
       </c>
       <c r="J22" s="1">
@@ -1470,7 +1470,7 @@
         <v>209</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" ref="L22:L41" si="7">L21</f>
+        <f t="shared" ref="L22:L51" si="7">L21</f>
         <v>82</v>
       </c>
       <c r="M22" s="1">
@@ -1746,13 +1746,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1">
-        <v>-1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E29" s="2">
         <v>280</v>
@@ -2311,6 +2311,446 @@
       </c>
       <c r="M41" s="1">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>410</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="H42" s="2">
+        <v>409</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="K42" s="2">
+        <v>409</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>420</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="H43" s="2">
+        <v>419</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="K43" s="2">
+        <v>419</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>430</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H44" s="2">
+        <v>429</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="K44" s="2">
+        <v>429</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>440</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H45" s="2">
+        <v>439</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="K45" s="2">
+        <v>439</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>450</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H46" s="2">
+        <v>449</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K46" s="2">
+        <v>449</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>460</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H47" s="2">
+        <v>459</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="K47" s="2">
+        <v>459</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>470</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="H48" s="2">
+        <v>469</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="K48" s="2">
+        <v>469</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>480</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H49" s="2">
+        <v>479</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="K49" s="2">
+        <v>479</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>490</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H50" s="2">
+        <v>489</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="K50" s="2">
+        <v>489</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>500</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="2">
+        <v>499</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="2">
+        <v>499</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A62A20E-2F4B-486D-846A-0589C7B8CC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A77E67-B007-4643-8410-991B9C7E6D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1450,7 @@
         <v>210</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ref="F22:F51" si="5">F21</f>
+        <f t="shared" ref="F22:F66" si="5">F21</f>
         <v>70</v>
       </c>
       <c r="G22" s="1">
@@ -1460,7 +1460,7 @@
         <v>209</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I51" si="6">I21</f>
+        <f t="shared" ref="I22:I66" si="6">I21</f>
         <v>71</v>
       </c>
       <c r="J22" s="1">
@@ -1470,7 +1470,7 @@
         <v>209</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" ref="L22:L51" si="7">L21</f>
+        <f t="shared" ref="L22:L66" si="7">L21</f>
         <v>82</v>
       </c>
       <c r="M22" s="1">
@@ -2751,6 +2751,666 @@
       </c>
       <c r="M51" s="1">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>510</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H52" s="2">
+        <v>509</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="K52" s="2">
+        <v>509</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>520</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="H53" s="2">
+        <v>519</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="K53" s="2">
+        <v>519</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>530</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="H54" s="2">
+        <v>529</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="K54" s="2">
+        <v>529</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>540</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="H55" s="2">
+        <v>539</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="K55" s="2">
+        <v>539</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>550</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H56" s="2">
+        <v>549</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K56" s="2">
+        <v>549</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>560</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H57" s="2">
+        <v>559</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K57" s="2">
+        <v>559</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>570</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H58" s="2">
+        <v>569</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K58" s="2">
+        <v>569</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>580</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H59" s="2">
+        <v>579</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K59" s="2">
+        <v>579</v>
+      </c>
+      <c r="L59" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>590</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H60" s="2">
+        <v>589</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="K60" s="2">
+        <v>589</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>600</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H61" s="2">
+        <v>599</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K61" s="2">
+        <v>599</v>
+      </c>
+      <c r="L61" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>610</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H62" s="2">
+        <v>609</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="K62" s="2">
+        <v>609</v>
+      </c>
+      <c r="L62" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>620</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H63" s="2">
+        <v>619</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="K63" s="2">
+        <v>619</v>
+      </c>
+      <c r="L63" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>630</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H64" s="2">
+        <v>629</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="K64" s="2">
+        <v>629</v>
+      </c>
+      <c r="L64" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>640</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H65" s="2">
+        <v>639</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="K65" s="2">
+        <v>639</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>650</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H66" s="2">
+        <v>649</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="K66" s="2">
+        <v>649</v>
+      </c>
+      <c r="L66" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A77E67-B007-4643-8410-991B9C7E6D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2808829F-CF02-4C8F-AD54-CDC0E33EB193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1450,7 @@
         <v>210</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ref="F22:F66" si="5">F21</f>
+        <f t="shared" ref="F22:F81" si="5">F21</f>
         <v>70</v>
       </c>
       <c r="G22" s="1">
@@ -1460,7 +1460,7 @@
         <v>209</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I66" si="6">I21</f>
+        <f t="shared" ref="I22:I81" si="6">I21</f>
         <v>71</v>
       </c>
       <c r="J22" s="1">
@@ -1470,7 +1470,7 @@
         <v>209</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" ref="L22:L66" si="7">L21</f>
+        <f t="shared" ref="L22:L81" si="7">L21</f>
         <v>82</v>
       </c>
       <c r="M22" s="1">
@@ -1790,13 +1790,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1">
-        <v>-1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E30" s="2">
         <v>290</v>
@@ -1834,13 +1834,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="D31" s="1">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="E31" s="2">
         <v>300</v>
@@ -3411,6 +3411,666 @@
       </c>
       <c r="M66" s="1">
         <v>0.65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>660</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H67" s="2">
+        <v>659</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="K67" s="2">
+        <v>659</v>
+      </c>
+      <c r="L67" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E68" s="2">
+        <v>670</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H68" s="2">
+        <v>669</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="K68" s="2">
+        <v>669</v>
+      </c>
+      <c r="L68" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>680</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="H69" s="2">
+        <v>679</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="K69" s="2">
+        <v>679</v>
+      </c>
+      <c r="L69" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E70" s="2">
+        <v>690</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="H70" s="2">
+        <v>689</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="K70" s="2">
+        <v>689</v>
+      </c>
+      <c r="L70" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>700</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H71" s="2">
+        <v>699</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K71" s="2">
+        <v>699</v>
+      </c>
+      <c r="L71" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>710</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="H72" s="2">
+        <v>709</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="K72" s="2">
+        <v>709</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>720</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="H73" s="2">
+        <v>719</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="K73" s="2">
+        <v>719</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>730</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="H74" s="2">
+        <v>729</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="K74" s="2">
+        <v>729</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>740</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="H75" s="2">
+        <v>739</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="K75" s="2">
+        <v>739</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>750</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H76" s="2">
+        <v>749</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K76" s="2">
+        <v>749</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>760</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="H77" s="2">
+        <v>759</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="K77" s="2">
+        <v>759</v>
+      </c>
+      <c r="L77" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>770</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="H78" s="2">
+        <v>769</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="K78" s="2">
+        <v>769</v>
+      </c>
+      <c r="L78" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E79" s="2">
+        <v>780</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H79" s="2">
+        <v>779</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="K79" s="2">
+        <v>779</v>
+      </c>
+      <c r="L79" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E80" s="2">
+        <v>790</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H80" s="2">
+        <v>789</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="K80" s="2">
+        <v>789</v>
+      </c>
+      <c r="L80" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="2">
+        <v>800</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H81" s="2">
+        <v>799</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K81" s="2">
+        <v>799</v>
+      </c>
+      <c r="L81" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2808829F-CF02-4C8F-AD54-CDC0E33EB193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA42CC9C-1703-43C4-95DC-9067A13A1FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -475,8 +475,8 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1878,13 +1878,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1">
-        <v>-1</v>
+        <v>0.31</v>
       </c>
       <c r="E32" s="2">
         <v>310</v>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA42CC9C-1703-43C4-95DC-9067A13A1FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8CAE36-491D-431D-AF0A-9567BA5B53B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicSpecial" sheetId="1" r:id="rId1"/>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1450,7 @@
         <v>210</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ref="F22:F81" si="5">F21</f>
+        <f t="shared" ref="F22:F85" si="5">F21</f>
         <v>70</v>
       </c>
       <c r="G22" s="1">
@@ -1460,7 +1460,7 @@
         <v>209</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I81" si="6">I21</f>
+        <f t="shared" ref="I22:I85" si="6">I21</f>
         <v>71</v>
       </c>
       <c r="J22" s="1">
@@ -1470,7 +1470,7 @@
         <v>209</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" ref="L22:L81" si="7">L21</f>
+        <f t="shared" ref="L22:L85" si="7">L21</f>
         <v>82</v>
       </c>
       <c r="M22" s="1">
@@ -1922,13 +1922,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>-1</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1">
-        <v>-1</v>
+        <v>0.32</v>
       </c>
       <c r="E33" s="2">
         <v>320</v>
@@ -1966,13 +1966,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>-1</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="D34" s="1">
-        <v>-1</v>
+        <v>0.33</v>
       </c>
       <c r="E34" s="2">
         <v>330</v>
@@ -4071,6 +4071,446 @@
       </c>
       <c r="M81" s="1">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="2">
+        <v>810</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H82" s="2">
+        <v>809</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="K82" s="2">
+        <v>809</v>
+      </c>
+      <c r="L82" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="2">
+        <v>820</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H83" s="2">
+        <v>819</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="K83" s="2">
+        <v>819</v>
+      </c>
+      <c r="L83" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E84" s="2">
+        <v>830</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H84" s="2">
+        <v>829</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="K84" s="2">
+        <v>829</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E85" s="2">
+        <v>840</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H85" s="2">
+        <v>839</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="K85" s="2">
+        <v>839</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E86" s="2">
+        <v>850</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" ref="F86:F91" si="8">F85</f>
+        <v>70</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H86" s="2">
+        <v>849</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" ref="I86:I91" si="9">I85</f>
+        <v>71</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K86" s="2">
+        <v>849</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" ref="L86:L91" si="10">L85</f>
+        <v>82</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E87" s="2">
+        <v>860</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H87" s="2">
+        <v>859</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="K87" s="2">
+        <v>859</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E88" s="2">
+        <v>870</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="H88" s="2">
+        <v>869</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="K88" s="2">
+        <v>869</v>
+      </c>
+      <c r="L88" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E89" s="2">
+        <v>880</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="H89" s="2">
+        <v>879</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="K89" s="2">
+        <v>879</v>
+      </c>
+      <c r="L89" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E90" s="2">
+        <v>890</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H90" s="2">
+        <v>889</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="K90" s="2">
+        <v>889</v>
+      </c>
+      <c r="L90" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E91" s="2">
+        <v>900</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H91" s="2">
+        <v>899</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K91" s="2">
+        <v>899</v>
+      </c>
+      <c r="L91" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8CAE36-491D-431D-AF0A-9567BA5B53B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B40DD2-0DF9-40AE-B938-D4203CE2E46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicSpecial" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
   <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2010,13 +2010,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>-1</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="E35" s="2">
         <v>340</v>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B40DD2-0DF9-40AE-B938-D4203CE2E46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BABCC39-0604-4CB1-AAED-AC551B64A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicSpecial" sheetId="1" r:id="rId1"/>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4266,7 +4266,7 @@
         <v>850</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" ref="F86:F91" si="8">F85</f>
+        <f t="shared" ref="F86:F121" si="8">F85</f>
         <v>70</v>
       </c>
       <c r="G86" s="1">
@@ -4276,7 +4276,7 @@
         <v>849</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" ref="I86:I91" si="9">I85</f>
+        <f t="shared" ref="I86:I121" si="9">I85</f>
         <v>71</v>
       </c>
       <c r="J86" s="1">
@@ -4286,7 +4286,7 @@
         <v>849</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" ref="L86:L91" si="10">L85</f>
+        <f t="shared" ref="L86:L121" si="10">L85</f>
         <v>82</v>
       </c>
       <c r="M86" s="1">
@@ -4511,6 +4511,1326 @@
       </c>
       <c r="M91" s="1">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E92" s="2">
+        <v>910</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="H92" s="2">
+        <v>909</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="K92" s="2">
+        <v>909</v>
+      </c>
+      <c r="L92" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E93" s="2">
+        <v>920</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H93" s="2">
+        <v>919</v>
+      </c>
+      <c r="I93" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="K93" s="2">
+        <v>919</v>
+      </c>
+      <c r="L93" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E94" s="2">
+        <v>930</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="H94" s="2">
+        <v>929</v>
+      </c>
+      <c r="I94" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="K94" s="2">
+        <v>929</v>
+      </c>
+      <c r="L94" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E95" s="2">
+        <v>940</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="H95" s="2">
+        <v>939</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="K95" s="2">
+        <v>939</v>
+      </c>
+      <c r="L95" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E96" s="2">
+        <v>950</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H96" s="2">
+        <v>949</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="K96" s="2">
+        <v>949</v>
+      </c>
+      <c r="L96" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="2">
+        <v>960</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="H97" s="2">
+        <v>959</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="K97" s="2">
+        <v>959</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E98" s="2">
+        <v>970</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="H98" s="2">
+        <v>969</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="K98" s="2">
+        <v>969</v>
+      </c>
+      <c r="L98" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E99" s="2">
+        <v>980</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="H99" s="2">
+        <v>979</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="K99" s="2">
+        <v>979</v>
+      </c>
+      <c r="L99" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E100" s="2">
+        <v>990</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H100" s="2">
+        <v>989</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="K100" s="2">
+        <v>989</v>
+      </c>
+      <c r="L100" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2">
+        <v>999</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J101" s="1">
+        <v>1</v>
+      </c>
+      <c r="K101" s="2">
+        <v>999</v>
+      </c>
+      <c r="L101" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1010</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="H102" s="2">
+        <v>1009</v>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J102" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="K102" s="2">
+        <v>1009</v>
+      </c>
+      <c r="L102" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M102" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1020</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="H103" s="2">
+        <v>1019</v>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="K103" s="2">
+        <v>1019</v>
+      </c>
+      <c r="L103" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M103" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1030</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="H104" s="2">
+        <v>1029</v>
+      </c>
+      <c r="I104" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J104" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="K104" s="2">
+        <v>1029</v>
+      </c>
+      <c r="L104" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M104" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1040</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="H105" s="2">
+        <v>1039</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J105" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="K105" s="2">
+        <v>1039</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M105" s="1">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="H106" s="2">
+        <v>1049</v>
+      </c>
+      <c r="I106" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J106" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="K106" s="2">
+        <v>1049</v>
+      </c>
+      <c r="L106" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M106" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1060</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="H107" s="2">
+        <v>1059</v>
+      </c>
+      <c r="I107" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="K107" s="2">
+        <v>1059</v>
+      </c>
+      <c r="L107" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1070</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="H108" s="2">
+        <v>1069</v>
+      </c>
+      <c r="I108" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J108" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="K108" s="2">
+        <v>1069</v>
+      </c>
+      <c r="L108" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M108" s="1">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1080</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="H109" s="2">
+        <v>1079</v>
+      </c>
+      <c r="I109" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="K109" s="2">
+        <v>1079</v>
+      </c>
+      <c r="L109" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M109" s="1">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C110" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1090</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H110" s="2">
+        <v>1089</v>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J110" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K110" s="2">
+        <v>1089</v>
+      </c>
+      <c r="L110" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M110" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D111" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1099</v>
+      </c>
+      <c r="I111" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J111" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K111" s="2">
+        <v>1099</v>
+      </c>
+      <c r="L111" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M111" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1110</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1109</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J112" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K112" s="2">
+        <v>1109</v>
+      </c>
+      <c r="L112" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M112" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1120</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1119</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J113" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K113" s="2">
+        <v>1119</v>
+      </c>
+      <c r="L113" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M113" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1130</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1129</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J114" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K114" s="2">
+        <v>1129</v>
+      </c>
+      <c r="L114" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M114" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1140</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1139</v>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J115" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1139</v>
+      </c>
+      <c r="L115" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M115" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1150</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1149</v>
+      </c>
+      <c r="I116" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J116" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K116" s="2">
+        <v>1149</v>
+      </c>
+      <c r="L116" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M116" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D117" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1160</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H117" s="2">
+        <v>1159</v>
+      </c>
+      <c r="I117" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J117" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K117" s="2">
+        <v>1159</v>
+      </c>
+      <c r="L117" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M117" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1170</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="H118" s="2">
+        <v>1169</v>
+      </c>
+      <c r="I118" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J118" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="K118" s="2">
+        <v>1169</v>
+      </c>
+      <c r="L118" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M118" s="1">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D119" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1180</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="H119" s="2">
+        <v>1179</v>
+      </c>
+      <c r="I119" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J119" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="K119" s="2">
+        <v>1179</v>
+      </c>
+      <c r="L119" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M119" s="1">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1190</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="H120" s="2">
+        <v>1189</v>
+      </c>
+      <c r="I120" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J120" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="K120" s="2">
+        <v>1189</v>
+      </c>
+      <c r="L120" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M120" s="1">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D121" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H121" s="2">
+        <v>1199</v>
+      </c>
+      <c r="I121" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J121" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K121" s="2">
+        <v>1199</v>
+      </c>
+      <c r="L121" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M121" s="1">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BABCC39-0604-4CB1-AAED-AC551B64A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CD85EA-BE25-462A-BBE2-37B308EA0EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicSpecial" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +216,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -322,7 +322,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4266,7 +4266,7 @@
         <v>850</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" ref="F86:F121" si="8">F85</f>
+        <f t="shared" ref="F86:F149" si="8">F85</f>
         <v>70</v>
       </c>
       <c r="G86" s="1">
@@ -4276,7 +4276,7 @@
         <v>849</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" ref="I86:I121" si="9">I85</f>
+        <f t="shared" ref="I86:I149" si="9">I85</f>
         <v>71</v>
       </c>
       <c r="J86" s="1">
@@ -4286,7 +4286,7 @@
         <v>849</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" ref="L86:L121" si="10">L85</f>
+        <f t="shared" ref="L86:L149" si="10">L85</f>
         <v>82</v>
       </c>
       <c r="M86" s="1">
@@ -5831,6 +5831,1326 @@
       </c>
       <c r="M121" s="1">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C122" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1210</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="H122" s="2">
+        <v>1209</v>
+      </c>
+      <c r="I122" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J122" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="K122" s="2">
+        <v>1209</v>
+      </c>
+      <c r="L122" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M122" s="1">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E123" s="2">
+        <v>1220</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="H123" s="2">
+        <v>1219</v>
+      </c>
+      <c r="I123" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J123" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="K123" s="2">
+        <v>1219</v>
+      </c>
+      <c r="L123" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M123" s="1">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E124" s="2">
+        <v>1230</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="H124" s="2">
+        <v>1229</v>
+      </c>
+      <c r="I124" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J124" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="K124" s="2">
+        <v>1229</v>
+      </c>
+      <c r="L124" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M124" s="1">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C125" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1240</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="H125" s="2">
+        <v>1239</v>
+      </c>
+      <c r="I125" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J125" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="K125" s="2">
+        <v>1239</v>
+      </c>
+      <c r="L125" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M125" s="1">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1250</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G126" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="H126" s="2">
+        <v>1249</v>
+      </c>
+      <c r="I126" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J126" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="K126" s="2">
+        <v>1249</v>
+      </c>
+      <c r="L126" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M126" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1260</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G127" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="H127" s="2">
+        <v>1259</v>
+      </c>
+      <c r="I127" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J127" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="K127" s="2">
+        <v>1259</v>
+      </c>
+      <c r="L127" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M127" s="1">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C128" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1270</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="H128" s="2">
+        <v>1269</v>
+      </c>
+      <c r="I128" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J128" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="K128" s="2">
+        <v>1269</v>
+      </c>
+      <c r="L128" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M128" s="1">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1280</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G129" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="H129" s="2">
+        <v>1279</v>
+      </c>
+      <c r="I129" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J129" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="K129" s="2">
+        <v>1279</v>
+      </c>
+      <c r="L129" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M129" s="1">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C130" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1290</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G130" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="H130" s="2">
+        <v>1289</v>
+      </c>
+      <c r="I130" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J130" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="K130" s="2">
+        <v>1289</v>
+      </c>
+      <c r="L130" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M130" s="1">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D131" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F131" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G131" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="H131" s="2">
+        <v>1299</v>
+      </c>
+      <c r="I131" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J131" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="K131" s="2">
+        <v>1299</v>
+      </c>
+      <c r="L131" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M131" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C132" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1310</v>
+      </c>
+      <c r="F132" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G132" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="H132" s="2">
+        <v>1309</v>
+      </c>
+      <c r="I132" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J132" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="K132" s="2">
+        <v>1309</v>
+      </c>
+      <c r="L132" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M132" s="1">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D133" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1320</v>
+      </c>
+      <c r="F133" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G133" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="H133" s="2">
+        <v>1319</v>
+      </c>
+      <c r="I133" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J133" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1319</v>
+      </c>
+      <c r="L133" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C134" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D134" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1330</v>
+      </c>
+      <c r="F134" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G134" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="H134" s="2">
+        <v>1329</v>
+      </c>
+      <c r="I134" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J134" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="K134" s="2">
+        <v>1329</v>
+      </c>
+      <c r="L134" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M134" s="1">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C135" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D135" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1340</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="H135" s="2">
+        <v>1339</v>
+      </c>
+      <c r="I135" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J135" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="K135" s="2">
+        <v>1339</v>
+      </c>
+      <c r="L135" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M135" s="1">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C136" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1350</v>
+      </c>
+      <c r="F136" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G136" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="H136" s="2">
+        <v>1349</v>
+      </c>
+      <c r="I136" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J136" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="K136" s="2">
+        <v>1349</v>
+      </c>
+      <c r="L136" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M136" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C137" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D137" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1360</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G137" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="H137" s="2">
+        <v>1359</v>
+      </c>
+      <c r="I137" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J137" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1359</v>
+      </c>
+      <c r="L137" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M137" s="1">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C138" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1370</v>
+      </c>
+      <c r="F138" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G138" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="H138" s="2">
+        <v>1369</v>
+      </c>
+      <c r="I138" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J138" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="K138" s="2">
+        <v>1369</v>
+      </c>
+      <c r="L138" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M138" s="1">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D139" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1380</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G139" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="H139" s="2">
+        <v>1379</v>
+      </c>
+      <c r="I139" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J139" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="K139" s="2">
+        <v>1379</v>
+      </c>
+      <c r="L139" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M139" s="1">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C140" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1390</v>
+      </c>
+      <c r="F140" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="H140" s="2">
+        <v>1389</v>
+      </c>
+      <c r="I140" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J140" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="K140" s="2">
+        <v>1389</v>
+      </c>
+      <c r="L140" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M140" s="1">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D141" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G141" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="H141" s="2">
+        <v>1399</v>
+      </c>
+      <c r="I141" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J141" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K141" s="2">
+        <v>1399</v>
+      </c>
+      <c r="L141" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M141" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C142" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1410</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G142" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="H142" s="2">
+        <v>1409</v>
+      </c>
+      <c r="I142" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J142" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="K142" s="2">
+        <v>1409</v>
+      </c>
+      <c r="L142" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M142" s="1">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C143" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D143" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1420</v>
+      </c>
+      <c r="F143" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G143" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="H143" s="2">
+        <v>1419</v>
+      </c>
+      <c r="I143" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J143" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="K143" s="2">
+        <v>1419</v>
+      </c>
+      <c r="L143" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M143" s="1">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1430</v>
+      </c>
+      <c r="F144" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G144" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="H144" s="2">
+        <v>1429</v>
+      </c>
+      <c r="I144" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J144" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="K144" s="2">
+        <v>1429</v>
+      </c>
+      <c r="L144" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M144" s="1">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D145" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1440</v>
+      </c>
+      <c r="F145" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="H145" s="2">
+        <v>1439</v>
+      </c>
+      <c r="I145" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J145" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="K145" s="2">
+        <v>1439</v>
+      </c>
+      <c r="L145" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M145" s="1">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D146" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1450</v>
+      </c>
+      <c r="F146" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G146" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="H146" s="2">
+        <v>1449</v>
+      </c>
+      <c r="I146" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J146" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="K146" s="2">
+        <v>1449</v>
+      </c>
+      <c r="L146" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M146" s="1">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C147" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1460</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G147" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="H147" s="2">
+        <v>1459</v>
+      </c>
+      <c r="I147" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J147" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1459</v>
+      </c>
+      <c r="L147" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M147" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D148" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1470</v>
+      </c>
+      <c r="F148" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G148" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="H148" s="2">
+        <v>1469</v>
+      </c>
+      <c r="I148" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J148" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="K148" s="2">
+        <v>1469</v>
+      </c>
+      <c r="L148" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M148" s="1">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D149" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1480</v>
+      </c>
+      <c r="F149" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G149" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="H149" s="2">
+        <v>1479</v>
+      </c>
+      <c r="I149" s="1">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="J149" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1479</v>
+      </c>
+      <c r="L149" s="1">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="M149" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C150" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D150" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1490</v>
+      </c>
+      <c r="F150" s="1">
+        <f t="shared" ref="F150:F151" si="11">F149</f>
+        <v>70</v>
+      </c>
+      <c r="G150" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="H150" s="2">
+        <v>1489</v>
+      </c>
+      <c r="I150" s="1">
+        <f t="shared" ref="I150:I151" si="12">I149</f>
+        <v>71</v>
+      </c>
+      <c r="J150" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="K150" s="2">
+        <v>1489</v>
+      </c>
+      <c r="L150" s="1">
+        <f t="shared" ref="L150:L151" si="13">L149</f>
+        <v>82</v>
+      </c>
+      <c r="M150" s="1">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C151" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D151" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F151" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G151" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H151" s="2">
+        <v>1499</v>
+      </c>
+      <c r="I151" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J151" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="K151" s="2">
+        <v>1499</v>
+      </c>
+      <c r="L151" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M151" s="1">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CD85EA-BE25-462A-BBE2-37B308EA0EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FEC15-37A0-4E43-AB87-78898BBE8B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicSpecial" sheetId="1" r:id="rId1"/>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F205" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7082,7 +7082,7 @@
         <v>1490</v>
       </c>
       <c r="F150" s="1">
-        <f t="shared" ref="F150:F151" si="11">F149</f>
+        <f t="shared" ref="F150:F201" si="11">F149</f>
         <v>70</v>
       </c>
       <c r="G150" s="1">
@@ -7092,7 +7092,7 @@
         <v>1489</v>
       </c>
       <c r="I150" s="1">
-        <f t="shared" ref="I150:I151" si="12">I149</f>
+        <f t="shared" ref="I150:I201" si="12">I149</f>
         <v>71</v>
       </c>
       <c r="J150" s="1">
@@ -7102,7 +7102,7 @@
         <v>1489</v>
       </c>
       <c r="L150" s="1">
-        <f t="shared" ref="L150:L151" si="13">L149</f>
+        <f t="shared" ref="L150:L201" si="13">L149</f>
         <v>82</v>
       </c>
       <c r="M150" s="1">
@@ -7151,6 +7151,2206 @@
       </c>
       <c r="M151" s="1">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C152" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1510</v>
+      </c>
+      <c r="F152" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G152" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="H152" s="2">
+        <v>1509</v>
+      </c>
+      <c r="I152" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J152" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="K152" s="2">
+        <v>1509</v>
+      </c>
+      <c r="L152" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M152" s="1">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C153" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D153" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1520</v>
+      </c>
+      <c r="F153" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G153" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="H153" s="2">
+        <v>1519</v>
+      </c>
+      <c r="I153" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J153" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="K153" s="2">
+        <v>1519</v>
+      </c>
+      <c r="L153" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M153" s="1">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C154" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D154" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E154" s="2">
+        <v>1530</v>
+      </c>
+      <c r="F154" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G154" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="H154" s="2">
+        <v>1529</v>
+      </c>
+      <c r="I154" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J154" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="K154" s="2">
+        <v>1529</v>
+      </c>
+      <c r="L154" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M154" s="1">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C155" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D155" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="2">
+        <v>1540</v>
+      </c>
+      <c r="F155" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G155" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="H155" s="2">
+        <v>1539</v>
+      </c>
+      <c r="I155" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J155" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="K155" s="2">
+        <v>1539</v>
+      </c>
+      <c r="L155" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M155" s="1">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C156" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D156" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E156" s="2">
+        <v>1550</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G156" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="H156" s="2">
+        <v>1549</v>
+      </c>
+      <c r="I156" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J156" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="K156" s="2">
+        <v>1549</v>
+      </c>
+      <c r="L156" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M156" s="1">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C157" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D157" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1560</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G157" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="H157" s="2">
+        <v>1559</v>
+      </c>
+      <c r="I157" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J157" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="K157" s="2">
+        <v>1559</v>
+      </c>
+      <c r="L157" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M157" s="1">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C158" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D158" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E158" s="2">
+        <v>1570</v>
+      </c>
+      <c r="F158" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G158" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="H158" s="2">
+        <v>1569</v>
+      </c>
+      <c r="I158" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J158" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="K158" s="2">
+        <v>1569</v>
+      </c>
+      <c r="L158" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M158" s="1">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C159" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D159" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1580</v>
+      </c>
+      <c r="F159" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G159" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="H159" s="2">
+        <v>1579</v>
+      </c>
+      <c r="I159" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J159" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="K159" s="2">
+        <v>1579</v>
+      </c>
+      <c r="L159" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M159" s="1">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D160" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1590</v>
+      </c>
+      <c r="F160" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G160" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="H160" s="2">
+        <v>1589</v>
+      </c>
+      <c r="I160" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J160" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="K160" s="2">
+        <v>1589</v>
+      </c>
+      <c r="L160" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M160" s="1">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C161" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D161" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1600</v>
+      </c>
+      <c r="F161" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G161" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="H161" s="2">
+        <v>1599</v>
+      </c>
+      <c r="I161" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J161" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="K161" s="2">
+        <v>1599</v>
+      </c>
+      <c r="L161" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M161" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C162" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D162" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E162" s="2">
+        <v>1610</v>
+      </c>
+      <c r="F162" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G162" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="H162" s="2">
+        <v>1609</v>
+      </c>
+      <c r="I162" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J162" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="K162" s="2">
+        <v>1609</v>
+      </c>
+      <c r="L162" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M162" s="1">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C163" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D163" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1620</v>
+      </c>
+      <c r="F163" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G163" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="H163" s="2">
+        <v>1619</v>
+      </c>
+      <c r="I163" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J163" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="K163" s="2">
+        <v>1619</v>
+      </c>
+      <c r="L163" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M163" s="1">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C164" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D164" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1630</v>
+      </c>
+      <c r="F164" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G164" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="H164" s="2">
+        <v>1629</v>
+      </c>
+      <c r="I164" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J164" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="K164" s="2">
+        <v>1629</v>
+      </c>
+      <c r="L164" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M164" s="1">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C165" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D165" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1640</v>
+      </c>
+      <c r="F165" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G165" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="H165" s="2">
+        <v>1639</v>
+      </c>
+      <c r="I165" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J165" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="K165" s="2">
+        <v>1639</v>
+      </c>
+      <c r="L165" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M165" s="1">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C166" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D166" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1650</v>
+      </c>
+      <c r="F166" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G166" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="H166" s="2">
+        <v>1649</v>
+      </c>
+      <c r="I166" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J166" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="K166" s="2">
+        <v>1649</v>
+      </c>
+      <c r="L166" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M166" s="1">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C167" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D167" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1660</v>
+      </c>
+      <c r="F167" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G167" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="H167" s="2">
+        <v>1659</v>
+      </c>
+      <c r="I167" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J167" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="K167" s="2">
+        <v>1659</v>
+      </c>
+      <c r="L167" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M167" s="1">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C168" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D168" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1670</v>
+      </c>
+      <c r="F168" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G168" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="H168" s="2">
+        <v>1669</v>
+      </c>
+      <c r="I168" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J168" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="K168" s="2">
+        <v>1669</v>
+      </c>
+      <c r="L168" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M168" s="1">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C169" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D169" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1680</v>
+      </c>
+      <c r="F169" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G169" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="H169" s="2">
+        <v>1679</v>
+      </c>
+      <c r="I169" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J169" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="K169" s="2">
+        <v>1679</v>
+      </c>
+      <c r="L169" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M169" s="1">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C170" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D170" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1690</v>
+      </c>
+      <c r="F170" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G170" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="H170" s="2">
+        <v>1689</v>
+      </c>
+      <c r="I170" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J170" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="K170" s="2">
+        <v>1689</v>
+      </c>
+      <c r="L170" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M170" s="1">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C171" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D171" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E171" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F171" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G171" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="H171" s="2">
+        <v>1699</v>
+      </c>
+      <c r="I171" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J171" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="K171" s="2">
+        <v>1699</v>
+      </c>
+      <c r="L171" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M171" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C172" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D172" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1710</v>
+      </c>
+      <c r="F172" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G172" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="H172" s="2">
+        <v>1709</v>
+      </c>
+      <c r="I172" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J172" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="K172" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L172" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M172" s="1">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C173" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D173" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="2">
+        <v>1720</v>
+      </c>
+      <c r="F173" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G173" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="H173" s="2">
+        <v>1719</v>
+      </c>
+      <c r="I173" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J173" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="K173" s="2">
+        <v>1719</v>
+      </c>
+      <c r="L173" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M173" s="1">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C174" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D174" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1730</v>
+      </c>
+      <c r="F174" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G174" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="H174" s="2">
+        <v>1729</v>
+      </c>
+      <c r="I174" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J174" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="K174" s="2">
+        <v>1729</v>
+      </c>
+      <c r="L174" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M174" s="1">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C175" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D175" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1740</v>
+      </c>
+      <c r="F175" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G175" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="H175" s="2">
+        <v>1739</v>
+      </c>
+      <c r="I175" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J175" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="K175" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L175" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M175" s="1">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C176" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D176" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="2">
+        <v>1750</v>
+      </c>
+      <c r="F176" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G176" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="H176" s="2">
+        <v>1749</v>
+      </c>
+      <c r="I176" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J176" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="K176" s="2">
+        <v>1749</v>
+      </c>
+      <c r="L176" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M176" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C177" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D177" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E177" s="2">
+        <v>1760</v>
+      </c>
+      <c r="F177" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G177" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="H177" s="2">
+        <v>1759</v>
+      </c>
+      <c r="I177" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J177" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="K177" s="2">
+        <v>1759</v>
+      </c>
+      <c r="L177" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M177" s="1">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C178" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D178" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1770</v>
+      </c>
+      <c r="F178" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G178" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="H178" s="2">
+        <v>1769</v>
+      </c>
+      <c r="I178" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J178" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="K178" s="2">
+        <v>1769</v>
+      </c>
+      <c r="L178" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M178" s="1">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C179" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D179" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1780</v>
+      </c>
+      <c r="F179" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G179" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="H179" s="2">
+        <v>1779</v>
+      </c>
+      <c r="I179" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J179" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="K179" s="2">
+        <v>1779</v>
+      </c>
+      <c r="L179" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M179" s="1">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C180" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D180" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E180" s="2">
+        <v>1790</v>
+      </c>
+      <c r="F180" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G180" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="H180" s="2">
+        <v>1789</v>
+      </c>
+      <c r="I180" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J180" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="K180" s="2">
+        <v>1789</v>
+      </c>
+      <c r="L180" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M180" s="1">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C181" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D181" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E181" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F181" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G181" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="H181" s="2">
+        <v>1799</v>
+      </c>
+      <c r="I181" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J181" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="K181" s="2">
+        <v>1799</v>
+      </c>
+      <c r="L181" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M181" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C182" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D182" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E182" s="2">
+        <v>1810</v>
+      </c>
+      <c r="F182" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G182" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="H182" s="2">
+        <v>1809</v>
+      </c>
+      <c r="I182" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J182" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="K182" s="2">
+        <v>1809</v>
+      </c>
+      <c r="L182" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M182" s="1">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C183" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D183" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E183" s="2">
+        <v>1820</v>
+      </c>
+      <c r="F183" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G183" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="H183" s="2">
+        <v>1819</v>
+      </c>
+      <c r="I183" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J183" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="K183" s="2">
+        <v>1819</v>
+      </c>
+      <c r="L183" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M183" s="1">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C184" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D184" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E184" s="2">
+        <v>1830</v>
+      </c>
+      <c r="F184" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G184" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="H184" s="2">
+        <v>1829</v>
+      </c>
+      <c r="I184" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J184" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="K184" s="2">
+        <v>1829</v>
+      </c>
+      <c r="L184" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M184" s="1">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C185" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D185" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E185" s="2">
+        <v>1840</v>
+      </c>
+      <c r="F185" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G185" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="H185" s="2">
+        <v>1839</v>
+      </c>
+      <c r="I185" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J185" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="K185" s="2">
+        <v>1839</v>
+      </c>
+      <c r="L185" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M185" s="1">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C186" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D186" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E186" s="2">
+        <v>1850</v>
+      </c>
+      <c r="F186" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G186" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="H186" s="2">
+        <v>1849</v>
+      </c>
+      <c r="I186" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J186" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="K186" s="2">
+        <v>1849</v>
+      </c>
+      <c r="L186" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M186" s="1">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C187" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D187" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E187" s="2">
+        <v>1860</v>
+      </c>
+      <c r="F187" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G187" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="H187" s="2">
+        <v>1859</v>
+      </c>
+      <c r="I187" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J187" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="K187" s="2">
+        <v>1859</v>
+      </c>
+      <c r="L187" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M187" s="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C188" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D188" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E188" s="2">
+        <v>1870</v>
+      </c>
+      <c r="F188" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G188" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="H188" s="2">
+        <v>1869</v>
+      </c>
+      <c r="I188" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J188" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="K188" s="2">
+        <v>1869</v>
+      </c>
+      <c r="L188" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M188" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C189" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D189" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E189" s="2">
+        <v>1880</v>
+      </c>
+      <c r="F189" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G189" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="H189" s="2">
+        <v>1879</v>
+      </c>
+      <c r="I189" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J189" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="K189" s="2">
+        <v>1879</v>
+      </c>
+      <c r="L189" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M189" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C190" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D190" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E190" s="2">
+        <v>1890</v>
+      </c>
+      <c r="F190" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G190" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="H190" s="2">
+        <v>1889</v>
+      </c>
+      <c r="I190" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J190" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="K190" s="2">
+        <v>1889</v>
+      </c>
+      <c r="L190" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M190" s="1">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C191" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D191" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E191" s="2">
+        <v>1900</v>
+      </c>
+      <c r="F191" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G191" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="H191" s="2">
+        <v>1899</v>
+      </c>
+      <c r="I191" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J191" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="K191" s="2">
+        <v>1899</v>
+      </c>
+      <c r="L191" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M191" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C192" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E192" s="2">
+        <v>1910</v>
+      </c>
+      <c r="F192" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G192" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="H192" s="2">
+        <v>1909</v>
+      </c>
+      <c r="I192" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J192" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="K192" s="2">
+        <v>1909</v>
+      </c>
+      <c r="L192" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M192" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C193" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D193" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E193" s="2">
+        <v>1920</v>
+      </c>
+      <c r="F193" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G193" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="H193" s="2">
+        <v>1919</v>
+      </c>
+      <c r="I193" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J193" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="K193" s="2">
+        <v>1919</v>
+      </c>
+      <c r="L193" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M193" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C194" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D194" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E194" s="2">
+        <v>1930</v>
+      </c>
+      <c r="F194" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G194" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="H194" s="2">
+        <v>1929</v>
+      </c>
+      <c r="I194" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J194" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="K194" s="2">
+        <v>1929</v>
+      </c>
+      <c r="L194" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M194" s="1">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C195" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D195" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E195" s="2">
+        <v>1940</v>
+      </c>
+      <c r="F195" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G195" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="H195" s="2">
+        <v>1939</v>
+      </c>
+      <c r="I195" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J195" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="K195" s="2">
+        <v>1939</v>
+      </c>
+      <c r="L195" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M195" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C196" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D196" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E196" s="2">
+        <v>1950</v>
+      </c>
+      <c r="F196" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G196" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="H196" s="2">
+        <v>1949</v>
+      </c>
+      <c r="I196" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J196" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="K196" s="2">
+        <v>1949</v>
+      </c>
+      <c r="L196" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M196" s="1">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C197" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D197" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E197" s="2">
+        <v>1960</v>
+      </c>
+      <c r="F197" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G197" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="H197" s="2">
+        <v>1959</v>
+      </c>
+      <c r="I197" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J197" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="K197" s="2">
+        <v>1959</v>
+      </c>
+      <c r="L197" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M197" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C198" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D198" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E198" s="2">
+        <v>1970</v>
+      </c>
+      <c r="F198" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G198" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="H198" s="2">
+        <v>1969</v>
+      </c>
+      <c r="I198" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J198" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="K198" s="2">
+        <v>1969</v>
+      </c>
+      <c r="L198" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M198" s="1">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C199" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D199" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E199" s="2">
+        <v>1980</v>
+      </c>
+      <c r="F199" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G199" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="H199" s="2">
+        <v>1979</v>
+      </c>
+      <c r="I199" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J199" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="K199" s="2">
+        <v>1979</v>
+      </c>
+      <c r="L199" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M199" s="1">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C200" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D200" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E200" s="2">
+        <v>1990</v>
+      </c>
+      <c r="F200" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G200" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H200" s="2">
+        <v>1989</v>
+      </c>
+      <c r="I200" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J200" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="K200" s="2">
+        <v>1989</v>
+      </c>
+      <c r="L200" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M200" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C201" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D201" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E201" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F201" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G201" s="1">
+        <v>2</v>
+      </c>
+      <c r="H201" s="2">
+        <v>1999</v>
+      </c>
+      <c r="I201" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J201" s="1">
+        <v>2</v>
+      </c>
+      <c r="K201" s="2">
+        <v>1999</v>
+      </c>
+      <c r="L201" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M201" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FEC15-37A0-4E43-AB87-78898BBE8B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B4B206-B77D-4577-BBF1-A8D72DBE724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicSpecial" sheetId="1" r:id="rId1"/>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F205" sqref="F205"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H242" sqref="H242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7082,7 +7082,7 @@
         <v>1490</v>
       </c>
       <c r="F150" s="1">
-        <f t="shared" ref="F150:F201" si="11">F149</f>
+        <f t="shared" ref="F150:F213" si="11">F149</f>
         <v>70</v>
       </c>
       <c r="G150" s="1">
@@ -7092,7 +7092,7 @@
         <v>1489</v>
       </c>
       <c r="I150" s="1">
-        <f t="shared" ref="I150:I201" si="12">I149</f>
+        <f t="shared" ref="I150:I213" si="12">I149</f>
         <v>71</v>
       </c>
       <c r="J150" s="1">
@@ -7102,7 +7102,7 @@
         <v>1489</v>
       </c>
       <c r="L150" s="1">
-        <f t="shared" ref="L150:L201" si="13">L149</f>
+        <f t="shared" ref="L150:L213" si="13">L149</f>
         <v>82</v>
       </c>
       <c r="M150" s="1">
@@ -9351,6 +9351,2206 @@
       </c>
       <c r="M201" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C202" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D202" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E202" s="2">
+        <v>2010</v>
+      </c>
+      <c r="F202" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G202" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H202" s="2">
+        <v>2009</v>
+      </c>
+      <c r="I202" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J202" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K202" s="2">
+        <v>2009</v>
+      </c>
+      <c r="L202" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M202" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C203" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D203" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E203" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F203" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G203" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="H203" s="2">
+        <v>2019</v>
+      </c>
+      <c r="I203" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J203" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="K203" s="2">
+        <v>2019</v>
+      </c>
+      <c r="L203" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M203" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C204" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D204" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E204" s="2">
+        <v>2030</v>
+      </c>
+      <c r="F204" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G204" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H204" s="2">
+        <v>2029</v>
+      </c>
+      <c r="I204" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J204" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K204" s="2">
+        <v>2029</v>
+      </c>
+      <c r="L204" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M204" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C205" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D205" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E205" s="2">
+        <v>2040</v>
+      </c>
+      <c r="F205" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G205" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="H205" s="2">
+        <v>2039</v>
+      </c>
+      <c r="I205" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J205" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="K205" s="2">
+        <v>2039</v>
+      </c>
+      <c r="L205" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M205" s="1">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C206" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D206" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E206" s="2">
+        <v>2050</v>
+      </c>
+      <c r="F206" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G206" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H206" s="2">
+        <v>2049</v>
+      </c>
+      <c r="I206" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J206" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K206" s="2">
+        <v>2049</v>
+      </c>
+      <c r="L206" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M206" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C207" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D207" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E207" s="2">
+        <v>2060</v>
+      </c>
+      <c r="F207" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G207" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="H207" s="2">
+        <v>2059</v>
+      </c>
+      <c r="I207" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J207" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="K207" s="2">
+        <v>2059</v>
+      </c>
+      <c r="L207" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M207" s="1">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C208" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D208" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E208" s="2">
+        <v>2070</v>
+      </c>
+      <c r="F208" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G208" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H208" s="2">
+        <v>2069</v>
+      </c>
+      <c r="I208" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J208" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K208" s="2">
+        <v>2069</v>
+      </c>
+      <c r="L208" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M208" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C209" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D209" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E209" s="2">
+        <v>2080</v>
+      </c>
+      <c r="F209" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G209" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="H209" s="2">
+        <v>2079</v>
+      </c>
+      <c r="I209" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J209" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="K209" s="2">
+        <v>2079</v>
+      </c>
+      <c r="L209" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M209" s="1">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C210" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D210" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E210" s="2">
+        <v>2090</v>
+      </c>
+      <c r="F210" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G210" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="H210" s="2">
+        <v>2089</v>
+      </c>
+      <c r="I210" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J210" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="K210" s="2">
+        <v>2089</v>
+      </c>
+      <c r="L210" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M210" s="1">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C211" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D211" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E211" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F211" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G211" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="H211" s="2">
+        <v>2099</v>
+      </c>
+      <c r="I211" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J211" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="K211" s="2">
+        <v>2099</v>
+      </c>
+      <c r="L211" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M211" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C212" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D212" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E212" s="2">
+        <v>2110</v>
+      </c>
+      <c r="F212" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G212" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="H212" s="2">
+        <v>2109</v>
+      </c>
+      <c r="I212" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J212" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="K212" s="2">
+        <v>2109</v>
+      </c>
+      <c r="L212" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M212" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C213" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D213" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E213" s="2">
+        <v>2120</v>
+      </c>
+      <c r="F213" s="1">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G213" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="H213" s="2">
+        <v>2119</v>
+      </c>
+      <c r="I213" s="1">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="J213" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="K213" s="2">
+        <v>2119</v>
+      </c>
+      <c r="L213" s="1">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="M213" s="1">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C214" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D214" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E214" s="2">
+        <v>2130</v>
+      </c>
+      <c r="F214" s="1">
+        <f t="shared" ref="F214:F251" si="14">F213</f>
+        <v>70</v>
+      </c>
+      <c r="G214" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="H214" s="2">
+        <v>2129</v>
+      </c>
+      <c r="I214" s="1">
+        <f t="shared" ref="I214:I251" si="15">I213</f>
+        <v>71</v>
+      </c>
+      <c r="J214" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="K214" s="2">
+        <v>2129</v>
+      </c>
+      <c r="L214" s="1">
+        <f t="shared" ref="L214:L251" si="16">L213</f>
+        <v>82</v>
+      </c>
+      <c r="M214" s="1">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C215" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D215" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E215" s="2">
+        <v>2140</v>
+      </c>
+      <c r="F215" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G215" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="H215" s="2">
+        <v>2139</v>
+      </c>
+      <c r="I215" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J215" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="K215" s="2">
+        <v>2139</v>
+      </c>
+      <c r="L215" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M215" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C216" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D216" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E216" s="2">
+        <v>2150</v>
+      </c>
+      <c r="F216" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G216" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="H216" s="2">
+        <v>2149</v>
+      </c>
+      <c r="I216" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J216" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="K216" s="2">
+        <v>2149</v>
+      </c>
+      <c r="L216" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M216" s="1">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C217" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D217" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E217" s="2">
+        <v>2160</v>
+      </c>
+      <c r="F217" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G217" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="H217" s="2">
+        <v>2159</v>
+      </c>
+      <c r="I217" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J217" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="K217" s="2">
+        <v>2159</v>
+      </c>
+      <c r="L217" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M217" s="1">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C218" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D218" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E218" s="2">
+        <v>2170</v>
+      </c>
+      <c r="F218" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G218" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="H218" s="2">
+        <v>2169</v>
+      </c>
+      <c r="I218" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J218" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="K218" s="2">
+        <v>2169</v>
+      </c>
+      <c r="L218" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M218" s="1">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C219" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D219" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E219" s="2">
+        <v>2180</v>
+      </c>
+      <c r="F219" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G219" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H219" s="2">
+        <v>2179</v>
+      </c>
+      <c r="I219" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J219" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K219" s="2">
+        <v>2179</v>
+      </c>
+      <c r="L219" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M219" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C220" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D220" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E220" s="2">
+        <v>2190</v>
+      </c>
+      <c r="F220" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G220" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="H220" s="2">
+        <v>2189</v>
+      </c>
+      <c r="I220" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J220" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="K220" s="2">
+        <v>2189</v>
+      </c>
+      <c r="L220" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M220" s="1">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C221" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D221" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E221" s="2">
+        <v>2200</v>
+      </c>
+      <c r="F221" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G221" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H221" s="2">
+        <v>2199</v>
+      </c>
+      <c r="I221" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J221" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K221" s="2">
+        <v>2199</v>
+      </c>
+      <c r="L221" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M221" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C222" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D222" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E222" s="2">
+        <v>2210</v>
+      </c>
+      <c r="F222" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G222" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="H222" s="2">
+        <v>2209</v>
+      </c>
+      <c r="I222" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J222" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="K222" s="2">
+        <v>2209</v>
+      </c>
+      <c r="L222" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M222" s="1">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C223" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D223" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E223" s="2">
+        <v>2220</v>
+      </c>
+      <c r="F223" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G223" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H223" s="2">
+        <v>2219</v>
+      </c>
+      <c r="I223" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J223" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K223" s="2">
+        <v>2219</v>
+      </c>
+      <c r="L223" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M223" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C224" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D224" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E224" s="2">
+        <v>2230</v>
+      </c>
+      <c r="F224" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G224" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="H224" s="2">
+        <v>2229</v>
+      </c>
+      <c r="I224" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J224" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="K224" s="2">
+        <v>2229</v>
+      </c>
+      <c r="L224" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M224" s="1">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C225" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D225" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E225" s="2">
+        <v>2240</v>
+      </c>
+      <c r="F225" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G225" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H225" s="2">
+        <v>2239</v>
+      </c>
+      <c r="I225" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J225" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K225" s="2">
+        <v>2239</v>
+      </c>
+      <c r="L225" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M225" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C226" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D226" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E226" s="2">
+        <v>2250</v>
+      </c>
+      <c r="F226" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G226" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="H226" s="2">
+        <v>2249</v>
+      </c>
+      <c r="I226" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J226" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="K226" s="2">
+        <v>2249</v>
+      </c>
+      <c r="L226" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M226" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C227" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D227" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E227" s="2">
+        <v>2260</v>
+      </c>
+      <c r="F227" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G227" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H227" s="2">
+        <v>2259</v>
+      </c>
+      <c r="I227" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J227" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K227" s="2">
+        <v>2259</v>
+      </c>
+      <c r="L227" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M227" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C228" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D228" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E228" s="2">
+        <v>2270</v>
+      </c>
+      <c r="F228" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G228" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="H228" s="2">
+        <v>2269</v>
+      </c>
+      <c r="I228" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J228" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="K228" s="2">
+        <v>2269</v>
+      </c>
+      <c r="L228" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M228" s="1">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C229" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D229" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E229" s="2">
+        <v>2280</v>
+      </c>
+      <c r="F229" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G229" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H229" s="2">
+        <v>2279</v>
+      </c>
+      <c r="I229" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J229" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K229" s="2">
+        <v>2279</v>
+      </c>
+      <c r="L229" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M229" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C230" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D230" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E230" s="2">
+        <v>2290</v>
+      </c>
+      <c r="F230" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G230" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="H230" s="2">
+        <v>2289</v>
+      </c>
+      <c r="I230" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J230" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="K230" s="2">
+        <v>2289</v>
+      </c>
+      <c r="L230" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M230" s="1">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C231" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D231" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E231" s="2">
+        <v>2300</v>
+      </c>
+      <c r="F231" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G231" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H231" s="2">
+        <v>2299</v>
+      </c>
+      <c r="I231" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J231" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K231" s="2">
+        <v>2299</v>
+      </c>
+      <c r="L231" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M231" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C232" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D232" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E232" s="2">
+        <v>2310</v>
+      </c>
+      <c r="F232" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G232" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="H232" s="2">
+        <v>2309</v>
+      </c>
+      <c r="I232" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J232" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="K232" s="2">
+        <v>2309</v>
+      </c>
+      <c r="L232" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M232" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C233" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D233" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E233" s="2">
+        <v>2320</v>
+      </c>
+      <c r="F233" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G233" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H233" s="2">
+        <v>2319</v>
+      </c>
+      <c r="I233" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J233" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K233" s="2">
+        <v>2319</v>
+      </c>
+      <c r="L233" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M233" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C234" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D234" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E234" s="2">
+        <v>2330</v>
+      </c>
+      <c r="F234" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G234" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="H234" s="2">
+        <v>2329</v>
+      </c>
+      <c r="I234" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J234" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="K234" s="2">
+        <v>2329</v>
+      </c>
+      <c r="L234" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M234" s="1">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C235" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D235" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E235" s="2">
+        <v>2340</v>
+      </c>
+      <c r="F235" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G235" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="H235" s="2">
+        <v>2339</v>
+      </c>
+      <c r="I235" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J235" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="K235" s="2">
+        <v>2339</v>
+      </c>
+      <c r="L235" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M235" s="1">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C236" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D236" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E236" s="2">
+        <v>2350</v>
+      </c>
+      <c r="F236" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G236" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="H236" s="2">
+        <v>2349</v>
+      </c>
+      <c r="I236" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J236" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="K236" s="2">
+        <v>2349</v>
+      </c>
+      <c r="L236" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M236" s="1">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C237" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D237" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E237" s="2">
+        <v>2360</v>
+      </c>
+      <c r="F237" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G237" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="H237" s="2">
+        <v>2359</v>
+      </c>
+      <c r="I237" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J237" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="K237" s="2">
+        <v>2359</v>
+      </c>
+      <c r="L237" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M237" s="1">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C238" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D238" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E238" s="2">
+        <v>2370</v>
+      </c>
+      <c r="F238" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G238" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="H238" s="2">
+        <v>2369</v>
+      </c>
+      <c r="I238" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J238" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="K238" s="2">
+        <v>2369</v>
+      </c>
+      <c r="L238" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M238" s="1">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C239" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D239" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E239" s="2">
+        <v>2380</v>
+      </c>
+      <c r="F239" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G239" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="H239" s="2">
+        <v>2379</v>
+      </c>
+      <c r="I239" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J239" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="K239" s="2">
+        <v>2379</v>
+      </c>
+      <c r="L239" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M239" s="1">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C240" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D240" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E240" s="2">
+        <v>2390</v>
+      </c>
+      <c r="F240" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G240" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="H240" s="2">
+        <v>2389</v>
+      </c>
+      <c r="I240" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J240" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="K240" s="2">
+        <v>2389</v>
+      </c>
+      <c r="L240" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M240" s="1">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C241" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D241" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E241" s="2">
+        <v>2400</v>
+      </c>
+      <c r="F241" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G241" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H241" s="2">
+        <v>2399</v>
+      </c>
+      <c r="I241" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J241" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="K241" s="2">
+        <v>2399</v>
+      </c>
+      <c r="L241" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M241" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C242" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D242" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E242" s="2">
+        <v>2410</v>
+      </c>
+      <c r="F242" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G242" s="1">
+        <v>2.41</v>
+      </c>
+      <c r="H242" s="2">
+        <v>2409</v>
+      </c>
+      <c r="I242" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J242" s="1">
+        <v>2.41</v>
+      </c>
+      <c r="K242" s="2">
+        <v>2409</v>
+      </c>
+      <c r="L242" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M242" s="1">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C243" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D243" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E243" s="2">
+        <v>2420</v>
+      </c>
+      <c r="F243" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G243" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="H243" s="2">
+        <v>2419</v>
+      </c>
+      <c r="I243" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J243" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="K243" s="2">
+        <v>2419</v>
+      </c>
+      <c r="L243" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M243" s="1">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C244" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D244" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E244" s="2">
+        <v>2430</v>
+      </c>
+      <c r="F244" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G244" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H244" s="2">
+        <v>2429</v>
+      </c>
+      <c r="I244" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J244" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K244" s="2">
+        <v>2429</v>
+      </c>
+      <c r="L244" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M244" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C245" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D245" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E245" s="2">
+        <v>2440</v>
+      </c>
+      <c r="F245" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G245" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="H245" s="2">
+        <v>2439</v>
+      </c>
+      <c r="I245" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J245" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="K245" s="2">
+        <v>2439</v>
+      </c>
+      <c r="L245" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M245" s="1">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C246" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D246" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E246" s="2">
+        <v>2450</v>
+      </c>
+      <c r="F246" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G246" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H246" s="2">
+        <v>2449</v>
+      </c>
+      <c r="I246" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J246" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K246" s="2">
+        <v>2449</v>
+      </c>
+      <c r="L246" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M246" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C247" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D247" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E247" s="2">
+        <v>2460</v>
+      </c>
+      <c r="F247" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G247" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="H247" s="2">
+        <v>2459</v>
+      </c>
+      <c r="I247" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J247" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="K247" s="2">
+        <v>2459</v>
+      </c>
+      <c r="L247" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M247" s="1">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C248" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D248" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E248" s="2">
+        <v>2470</v>
+      </c>
+      <c r="F248" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G248" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H248" s="2">
+        <v>2469</v>
+      </c>
+      <c r="I248" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J248" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K248" s="2">
+        <v>2469</v>
+      </c>
+      <c r="L248" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M248" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C249" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D249" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E249" s="2">
+        <v>2480</v>
+      </c>
+      <c r="F249" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G249" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="H249" s="2">
+        <v>2479</v>
+      </c>
+      <c r="I249" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J249" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="K249" s="2">
+        <v>2479</v>
+      </c>
+      <c r="L249" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M249" s="1">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C250" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D250" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E250" s="2">
+        <v>2490</v>
+      </c>
+      <c r="F250" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G250" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H250" s="2">
+        <v>2489</v>
+      </c>
+      <c r="I250" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J250" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="K250" s="2">
+        <v>2489</v>
+      </c>
+      <c r="L250" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M250" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C251" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D251" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E251" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F251" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G251" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H251" s="2">
+        <v>2499</v>
+      </c>
+      <c r="I251" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J251" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K251" s="2">
+        <v>2499</v>
+      </c>
+      <c r="L251" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M251" s="1">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B4B206-B77D-4577-BBF1-A8D72DBE724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C402D06A-0C0E-463D-8998-AE2B6B105B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M251"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H242" sqref="H242"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K283" sqref="K283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9898,7 +9898,7 @@
         <v>2130</v>
       </c>
       <c r="F214" s="1">
-        <f t="shared" ref="F214:F251" si="14">F213</f>
+        <f t="shared" ref="F214:F277" si="14">F213</f>
         <v>70</v>
       </c>
       <c r="G214" s="1">
@@ -9908,7 +9908,7 @@
         <v>2129</v>
       </c>
       <c r="I214" s="1">
-        <f t="shared" ref="I214:I251" si="15">I213</f>
+        <f t="shared" ref="I214:I277" si="15">I213</f>
         <v>71</v>
       </c>
       <c r="J214" s="1">
@@ -9918,7 +9918,7 @@
         <v>2129</v>
       </c>
       <c r="L214" s="1">
-        <f t="shared" ref="L214:L251" si="16">L213</f>
+        <f t="shared" ref="L214:L277" si="16">L213</f>
         <v>82</v>
       </c>
       <c r="M214" s="1">
@@ -11551,6 +11551,2206 @@
       </c>
       <c r="M251" s="1">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C252" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D252" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E252" s="2">
+        <v>2510</v>
+      </c>
+      <c r="F252" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G252" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H252" s="2">
+        <v>2509</v>
+      </c>
+      <c r="I252" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J252" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="K252" s="2">
+        <v>2509</v>
+      </c>
+      <c r="L252" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M252" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C253" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D253" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E253" s="2">
+        <v>2520</v>
+      </c>
+      <c r="F253" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G253" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="H253" s="2">
+        <v>2519</v>
+      </c>
+      <c r="I253" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J253" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="K253" s="2">
+        <v>2519</v>
+      </c>
+      <c r="L253" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M253" s="1">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C254" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D254" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E254" s="2">
+        <v>2530</v>
+      </c>
+      <c r="F254" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G254" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H254" s="2">
+        <v>2529</v>
+      </c>
+      <c r="I254" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J254" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K254" s="2">
+        <v>2529</v>
+      </c>
+      <c r="L254" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M254" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C255" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D255" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E255" s="2">
+        <v>2540</v>
+      </c>
+      <c r="F255" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G255" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="H255" s="2">
+        <v>2539</v>
+      </c>
+      <c r="I255" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J255" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="K255" s="2">
+        <v>2539</v>
+      </c>
+      <c r="L255" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M255" s="1">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C256" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D256" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E256" s="2">
+        <v>2550</v>
+      </c>
+      <c r="F256" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G256" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H256" s="2">
+        <v>2549</v>
+      </c>
+      <c r="I256" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J256" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K256" s="2">
+        <v>2549</v>
+      </c>
+      <c r="L256" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M256" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C257" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D257" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E257" s="2">
+        <v>2560</v>
+      </c>
+      <c r="F257" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G257" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="H257" s="2">
+        <v>2559</v>
+      </c>
+      <c r="I257" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J257" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="K257" s="2">
+        <v>2559</v>
+      </c>
+      <c r="L257" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M257" s="1">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C258" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D258" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E258" s="2">
+        <v>2570</v>
+      </c>
+      <c r="F258" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G258" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="H258" s="2">
+        <v>2569</v>
+      </c>
+      <c r="I258" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J258" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="K258" s="2">
+        <v>2569</v>
+      </c>
+      <c r="L258" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M258" s="1">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C259" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D259" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E259" s="2">
+        <v>2580</v>
+      </c>
+      <c r="F259" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G259" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="H259" s="2">
+        <v>2579</v>
+      </c>
+      <c r="I259" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J259" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="K259" s="2">
+        <v>2579</v>
+      </c>
+      <c r="L259" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M259" s="1">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C260" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D260" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E260" s="2">
+        <v>2590</v>
+      </c>
+      <c r="F260" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G260" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="H260" s="2">
+        <v>2589</v>
+      </c>
+      <c r="I260" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J260" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="K260" s="2">
+        <v>2589</v>
+      </c>
+      <c r="L260" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M260" s="1">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C261" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D261" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E261" s="2">
+        <v>2600</v>
+      </c>
+      <c r="F261" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G261" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H261" s="2">
+        <v>2599</v>
+      </c>
+      <c r="I261" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J261" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="K261" s="2">
+        <v>2599</v>
+      </c>
+      <c r="L261" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M261" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C262" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D262" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E262" s="2">
+        <v>2610</v>
+      </c>
+      <c r="F262" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G262" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="H262" s="2">
+        <v>2609</v>
+      </c>
+      <c r="I262" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J262" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="K262" s="2">
+        <v>2609</v>
+      </c>
+      <c r="L262" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M262" s="1">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C263" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D263" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E263" s="2">
+        <v>2620</v>
+      </c>
+      <c r="F263" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G263" s="1">
+        <v>2.6200000000000099</v>
+      </c>
+      <c r="H263" s="2">
+        <v>2619</v>
+      </c>
+      <c r="I263" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J263" s="1">
+        <v>2.6200000000000099</v>
+      </c>
+      <c r="K263" s="2">
+        <v>2619</v>
+      </c>
+      <c r="L263" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M263" s="1">
+        <v>2.6200000000000099</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C264" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D264" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E264" s="2">
+        <v>2630</v>
+      </c>
+      <c r="F264" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G264" s="1">
+        <v>2.6300000000000101</v>
+      </c>
+      <c r="H264" s="2">
+        <v>2629</v>
+      </c>
+      <c r="I264" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J264" s="1">
+        <v>2.6300000000000101</v>
+      </c>
+      <c r="K264" s="2">
+        <v>2629</v>
+      </c>
+      <c r="L264" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M264" s="1">
+        <v>2.6300000000000101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C265" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D265" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E265" s="2">
+        <v>2640</v>
+      </c>
+      <c r="F265" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G265" s="1">
+        <v>2.6400000000000099</v>
+      </c>
+      <c r="H265" s="2">
+        <v>2639</v>
+      </c>
+      <c r="I265" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J265" s="1">
+        <v>2.6400000000000099</v>
+      </c>
+      <c r="K265" s="2">
+        <v>2639</v>
+      </c>
+      <c r="L265" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M265" s="1">
+        <v>2.6400000000000099</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C266" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D266" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E266" s="2">
+        <v>2650</v>
+      </c>
+      <c r="F266" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G266" s="1">
+        <v>2.6500000000000101</v>
+      </c>
+      <c r="H266" s="2">
+        <v>2649</v>
+      </c>
+      <c r="I266" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J266" s="1">
+        <v>2.6500000000000101</v>
+      </c>
+      <c r="K266" s="2">
+        <v>2649</v>
+      </c>
+      <c r="L266" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M266" s="1">
+        <v>2.6500000000000101</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C267" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D267" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E267" s="2">
+        <v>2660</v>
+      </c>
+      <c r="F267" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G267" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="H267" s="2">
+        <v>2659</v>
+      </c>
+      <c r="I267" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J267" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="K267" s="2">
+        <v>2659</v>
+      </c>
+      <c r="L267" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M267" s="1">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C268" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D268" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E268" s="2">
+        <v>2670</v>
+      </c>
+      <c r="F268" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G268" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="H268" s="2">
+        <v>2669</v>
+      </c>
+      <c r="I268" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J268" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="K268" s="2">
+        <v>2669</v>
+      </c>
+      <c r="L268" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M268" s="1">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C269" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D269" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E269" s="2">
+        <v>2680</v>
+      </c>
+      <c r="F269" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G269" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="H269" s="2">
+        <v>2679</v>
+      </c>
+      <c r="I269" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J269" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="K269" s="2">
+        <v>2679</v>
+      </c>
+      <c r="L269" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M269" s="1">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C270" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D270" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E270" s="2">
+        <v>2690</v>
+      </c>
+      <c r="F270" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G270" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="H270" s="2">
+        <v>2689</v>
+      </c>
+      <c r="I270" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J270" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="K270" s="2">
+        <v>2689</v>
+      </c>
+      <c r="L270" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M270" s="1">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C271" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D271" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E271" s="2">
+        <v>2700</v>
+      </c>
+      <c r="F271" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G271" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H271" s="2">
+        <v>2699</v>
+      </c>
+      <c r="I271" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J271" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="K271" s="2">
+        <v>2699</v>
+      </c>
+      <c r="L271" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M271" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C272" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D272" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E272" s="2">
+        <v>2710</v>
+      </c>
+      <c r="F272" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G272" s="1">
+        <v>2.7099999999999902</v>
+      </c>
+      <c r="H272" s="2">
+        <v>2709</v>
+      </c>
+      <c r="I272" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J272" s="1">
+        <v>2.7099999999999902</v>
+      </c>
+      <c r="K272" s="2">
+        <v>2709</v>
+      </c>
+      <c r="L272" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M272" s="1">
+        <v>2.7099999999999902</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C273" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D273" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E273" s="2">
+        <v>2720</v>
+      </c>
+      <c r="F273" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G273" s="1">
+        <v>2.71999999999999</v>
+      </c>
+      <c r="H273" s="2">
+        <v>2719</v>
+      </c>
+      <c r="I273" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J273" s="1">
+        <v>2.71999999999999</v>
+      </c>
+      <c r="K273" s="2">
+        <v>2719</v>
+      </c>
+      <c r="L273" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M273" s="1">
+        <v>2.71999999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C274" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D274" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E274" s="2">
+        <v>2730</v>
+      </c>
+      <c r="F274" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G274" s="1">
+        <v>2.7299999999999902</v>
+      </c>
+      <c r="H274" s="2">
+        <v>2729</v>
+      </c>
+      <c r="I274" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J274" s="1">
+        <v>2.7299999999999902</v>
+      </c>
+      <c r="K274" s="2">
+        <v>2729</v>
+      </c>
+      <c r="L274" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M274" s="1">
+        <v>2.7299999999999902</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C275" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D275" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E275" s="2">
+        <v>2740</v>
+      </c>
+      <c r="F275" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G275" s="1">
+        <v>2.73999999999999</v>
+      </c>
+      <c r="H275" s="2">
+        <v>2739</v>
+      </c>
+      <c r="I275" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J275" s="1">
+        <v>2.73999999999999</v>
+      </c>
+      <c r="K275" s="2">
+        <v>2739</v>
+      </c>
+      <c r="L275" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M275" s="1">
+        <v>2.73999999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C276" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D276" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E276" s="2">
+        <v>2750</v>
+      </c>
+      <c r="F276" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G276" s="1">
+        <v>2.7499999999999898</v>
+      </c>
+      <c r="H276" s="2">
+        <v>2749</v>
+      </c>
+      <c r="I276" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J276" s="1">
+        <v>2.7499999999999898</v>
+      </c>
+      <c r="K276" s="2">
+        <v>2749</v>
+      </c>
+      <c r="L276" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M276" s="1">
+        <v>2.7499999999999898</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C277" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D277" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E277" s="2">
+        <v>2760</v>
+      </c>
+      <c r="F277" s="1">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="G277" s="1">
+        <v>2.75999999999999</v>
+      </c>
+      <c r="H277" s="2">
+        <v>2759</v>
+      </c>
+      <c r="I277" s="1">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="J277" s="1">
+        <v>2.75999999999999</v>
+      </c>
+      <c r="K277" s="2">
+        <v>2759</v>
+      </c>
+      <c r="L277" s="1">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="M277" s="1">
+        <v>2.75999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C278" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D278" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E278" s="2">
+        <v>2770</v>
+      </c>
+      <c r="F278" s="1">
+        <f t="shared" ref="F278:F301" si="17">F277</f>
+        <v>70</v>
+      </c>
+      <c r="G278" s="1">
+        <v>2.7699999999999898</v>
+      </c>
+      <c r="H278" s="2">
+        <v>2769</v>
+      </c>
+      <c r="I278" s="1">
+        <f t="shared" ref="I278:I301" si="18">I277</f>
+        <v>71</v>
+      </c>
+      <c r="J278" s="1">
+        <v>2.7699999999999898</v>
+      </c>
+      <c r="K278" s="2">
+        <v>2769</v>
+      </c>
+      <c r="L278" s="1">
+        <f t="shared" ref="L278:L301" si="19">L277</f>
+        <v>82</v>
+      </c>
+      <c r="M278" s="1">
+        <v>2.7699999999999898</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C279" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D279" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E279" s="2">
+        <v>2780</v>
+      </c>
+      <c r="F279" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G279" s="1">
+        <v>2.77999999999999</v>
+      </c>
+      <c r="H279" s="2">
+        <v>2779</v>
+      </c>
+      <c r="I279" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J279" s="1">
+        <v>2.77999999999999</v>
+      </c>
+      <c r="K279" s="2">
+        <v>2779</v>
+      </c>
+      <c r="L279" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M279" s="1">
+        <v>2.77999999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C280" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D280" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E280" s="2">
+        <v>2790</v>
+      </c>
+      <c r="F280" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G280" s="1">
+        <v>2.7899999999999898</v>
+      </c>
+      <c r="H280" s="2">
+        <v>2789</v>
+      </c>
+      <c r="I280" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J280" s="1">
+        <v>2.7899999999999898</v>
+      </c>
+      <c r="K280" s="2">
+        <v>2789</v>
+      </c>
+      <c r="L280" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M280" s="1">
+        <v>2.7899999999999898</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C281" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D281" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E281" s="2">
+        <v>2800</v>
+      </c>
+      <c r="F281" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G281" s="1">
+        <v>2.7999999999999901</v>
+      </c>
+      <c r="H281" s="2">
+        <v>2799</v>
+      </c>
+      <c r="I281" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J281" s="1">
+        <v>2.7999999999999901</v>
+      </c>
+      <c r="K281" s="2">
+        <v>2799</v>
+      </c>
+      <c r="L281" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M281" s="1">
+        <v>2.7999999999999901</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C282" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D282" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E282" s="2">
+        <v>2810</v>
+      </c>
+      <c r="F282" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G282" s="1">
+        <v>2.8099999999999898</v>
+      </c>
+      <c r="H282" s="2">
+        <v>2809</v>
+      </c>
+      <c r="I282" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J282" s="1">
+        <v>2.8099999999999898</v>
+      </c>
+      <c r="K282" s="2">
+        <v>2809</v>
+      </c>
+      <c r="L282" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M282" s="1">
+        <v>2.8099999999999898</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C283" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D283" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E283" s="2">
+        <v>2820</v>
+      </c>
+      <c r="F283" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G283" s="1">
+        <v>2.8199999999999901</v>
+      </c>
+      <c r="H283" s="2">
+        <v>2819</v>
+      </c>
+      <c r="I283" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J283" s="1">
+        <v>2.8199999999999901</v>
+      </c>
+      <c r="K283" s="2">
+        <v>2819</v>
+      </c>
+      <c r="L283" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M283" s="1">
+        <v>2.8199999999999901</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C284" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D284" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E284" s="2">
+        <v>2830</v>
+      </c>
+      <c r="F284" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G284" s="1">
+        <v>2.8299999999999899</v>
+      </c>
+      <c r="H284" s="2">
+        <v>2829</v>
+      </c>
+      <c r="I284" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J284" s="1">
+        <v>2.8299999999999899</v>
+      </c>
+      <c r="K284" s="2">
+        <v>2829</v>
+      </c>
+      <c r="L284" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M284" s="1">
+        <v>2.8299999999999899</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C285" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D285" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E285" s="2">
+        <v>2840</v>
+      </c>
+      <c r="F285" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G285" s="1">
+        <v>2.8399999999999901</v>
+      </c>
+      <c r="H285" s="2">
+        <v>2839</v>
+      </c>
+      <c r="I285" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J285" s="1">
+        <v>2.8399999999999901</v>
+      </c>
+      <c r="K285" s="2">
+        <v>2839</v>
+      </c>
+      <c r="L285" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M285" s="1">
+        <v>2.8399999999999901</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C286" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D286" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E286" s="2">
+        <v>2850</v>
+      </c>
+      <c r="F286" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G286" s="1">
+        <v>2.8499999999999899</v>
+      </c>
+      <c r="H286" s="2">
+        <v>2849</v>
+      </c>
+      <c r="I286" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J286" s="1">
+        <v>2.8499999999999899</v>
+      </c>
+      <c r="K286" s="2">
+        <v>2849</v>
+      </c>
+      <c r="L286" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M286" s="1">
+        <v>2.8499999999999899</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C287" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D287" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E287" s="2">
+        <v>2860</v>
+      </c>
+      <c r="F287" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G287" s="1">
+        <v>2.8599999999999901</v>
+      </c>
+      <c r="H287" s="2">
+        <v>2859</v>
+      </c>
+      <c r="I287" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J287" s="1">
+        <v>2.8599999999999901</v>
+      </c>
+      <c r="K287" s="2">
+        <v>2859</v>
+      </c>
+      <c r="L287" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M287" s="1">
+        <v>2.8599999999999901</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C288" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D288" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E288" s="2">
+        <v>2870</v>
+      </c>
+      <c r="F288" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G288" s="1">
+        <v>2.8699999999999899</v>
+      </c>
+      <c r="H288" s="2">
+        <v>2869</v>
+      </c>
+      <c r="I288" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J288" s="1">
+        <v>2.8699999999999899</v>
+      </c>
+      <c r="K288" s="2">
+        <v>2869</v>
+      </c>
+      <c r="L288" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M288" s="1">
+        <v>2.8699999999999899</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C289" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D289" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E289" s="2">
+        <v>2880</v>
+      </c>
+      <c r="F289" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G289" s="1">
+        <v>2.8799999999999901</v>
+      </c>
+      <c r="H289" s="2">
+        <v>2879</v>
+      </c>
+      <c r="I289" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J289" s="1">
+        <v>2.8799999999999901</v>
+      </c>
+      <c r="K289" s="2">
+        <v>2879</v>
+      </c>
+      <c r="L289" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M289" s="1">
+        <v>2.8799999999999901</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C290" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D290" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E290" s="2">
+        <v>2890</v>
+      </c>
+      <c r="F290" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G290" s="1">
+        <v>2.8899999999999899</v>
+      </c>
+      <c r="H290" s="2">
+        <v>2889</v>
+      </c>
+      <c r="I290" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J290" s="1">
+        <v>2.8899999999999899</v>
+      </c>
+      <c r="K290" s="2">
+        <v>2889</v>
+      </c>
+      <c r="L290" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M290" s="1">
+        <v>2.8899999999999899</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C291" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D291" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E291" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F291" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G291" s="1">
+        <v>2.8999999999999901</v>
+      </c>
+      <c r="H291" s="2">
+        <v>2899</v>
+      </c>
+      <c r="I291" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J291" s="1">
+        <v>2.8999999999999901</v>
+      </c>
+      <c r="K291" s="2">
+        <v>2899</v>
+      </c>
+      <c r="L291" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M291" s="1">
+        <v>2.8999999999999901</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C292" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D292" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E292" s="2">
+        <v>2910</v>
+      </c>
+      <c r="F292" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G292" s="1">
+        <v>2.9099999999999899</v>
+      </c>
+      <c r="H292" s="2">
+        <v>2909</v>
+      </c>
+      <c r="I292" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J292" s="1">
+        <v>2.9099999999999899</v>
+      </c>
+      <c r="K292" s="2">
+        <v>2909</v>
+      </c>
+      <c r="L292" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M292" s="1">
+        <v>2.9099999999999899</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C293" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D293" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E293" s="2">
+        <v>2920</v>
+      </c>
+      <c r="F293" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G293" s="1">
+        <v>2.9199999999999902</v>
+      </c>
+      <c r="H293" s="2">
+        <v>2919</v>
+      </c>
+      <c r="I293" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J293" s="1">
+        <v>2.9199999999999902</v>
+      </c>
+      <c r="K293" s="2">
+        <v>2919</v>
+      </c>
+      <c r="L293" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M293" s="1">
+        <v>2.9199999999999902</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C294" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D294" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E294" s="2">
+        <v>2930</v>
+      </c>
+      <c r="F294" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G294" s="1">
+        <v>2.9299999999999899</v>
+      </c>
+      <c r="H294" s="2">
+        <v>2929</v>
+      </c>
+      <c r="I294" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J294" s="1">
+        <v>2.9299999999999899</v>
+      </c>
+      <c r="K294" s="2">
+        <v>2929</v>
+      </c>
+      <c r="L294" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M294" s="1">
+        <v>2.9299999999999899</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C295" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D295" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E295" s="2">
+        <v>2940</v>
+      </c>
+      <c r="F295" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G295" s="1">
+        <v>2.9399999999999902</v>
+      </c>
+      <c r="H295" s="2">
+        <v>2939</v>
+      </c>
+      <c r="I295" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J295" s="1">
+        <v>2.9399999999999902</v>
+      </c>
+      <c r="K295" s="2">
+        <v>2939</v>
+      </c>
+      <c r="L295" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M295" s="1">
+        <v>2.9399999999999902</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C296" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D296" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E296" s="2">
+        <v>2950</v>
+      </c>
+      <c r="F296" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G296" s="1">
+        <v>2.94999999999999</v>
+      </c>
+      <c r="H296" s="2">
+        <v>2949</v>
+      </c>
+      <c r="I296" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J296" s="1">
+        <v>2.94999999999999</v>
+      </c>
+      <c r="K296" s="2">
+        <v>2949</v>
+      </c>
+      <c r="L296" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M296" s="1">
+        <v>2.94999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C297" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D297" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E297" s="2">
+        <v>2960</v>
+      </c>
+      <c r="F297" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G297" s="1">
+        <v>2.9599999999999902</v>
+      </c>
+      <c r="H297" s="2">
+        <v>2959</v>
+      </c>
+      <c r="I297" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J297" s="1">
+        <v>2.9599999999999902</v>
+      </c>
+      <c r="K297" s="2">
+        <v>2959</v>
+      </c>
+      <c r="L297" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M297" s="1">
+        <v>2.9599999999999902</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C298" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D298" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E298" s="2">
+        <v>2970</v>
+      </c>
+      <c r="F298" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G298" s="1">
+        <v>2.96999999999999</v>
+      </c>
+      <c r="H298" s="2">
+        <v>2969</v>
+      </c>
+      <c r="I298" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J298" s="1">
+        <v>2.96999999999999</v>
+      </c>
+      <c r="K298" s="2">
+        <v>2969</v>
+      </c>
+      <c r="L298" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M298" s="1">
+        <v>2.96999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C299" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D299" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E299" s="2">
+        <v>2980</v>
+      </c>
+      <c r="F299" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G299" s="1">
+        <v>2.9799999999999902</v>
+      </c>
+      <c r="H299" s="2">
+        <v>2979</v>
+      </c>
+      <c r="I299" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J299" s="1">
+        <v>2.9799999999999902</v>
+      </c>
+      <c r="K299" s="2">
+        <v>2979</v>
+      </c>
+      <c r="L299" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M299" s="1">
+        <v>2.9799999999999902</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C300" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D300" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E300" s="2">
+        <v>2990</v>
+      </c>
+      <c r="F300" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G300" s="1">
+        <v>2.98999999999999</v>
+      </c>
+      <c r="H300" s="2">
+        <v>2989</v>
+      </c>
+      <c r="I300" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J300" s="1">
+        <v>2.98999999999999</v>
+      </c>
+      <c r="K300" s="2">
+        <v>2989</v>
+      </c>
+      <c r="L300" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M300" s="1">
+        <v>2.98999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C301" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D301" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E301" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F301" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G301" s="1">
+        <v>2.9999999999999898</v>
+      </c>
+      <c r="H301" s="2">
+        <v>2999</v>
+      </c>
+      <c r="I301" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J301" s="1">
+        <v>2.9999999999999898</v>
+      </c>
+      <c r="K301" s="2">
+        <v>2999</v>
+      </c>
+      <c r="L301" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M301" s="1">
+        <v>2.9999999999999898</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C402D06A-0C0E-463D-8998-AE2B6B105B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD741D-2313-474F-B8B5-6DD9E7F60068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M301"/>
+  <dimension ref="A1:M351"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K283" sqref="K283"/>
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J341" sqref="J341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12714,7 +12714,7 @@
         <v>2770</v>
       </c>
       <c r="F278" s="1">
-        <f t="shared" ref="F278:F301" si="17">F277</f>
+        <f t="shared" ref="F278:F341" si="17">F277</f>
         <v>70</v>
       </c>
       <c r="G278" s="1">
@@ -12724,7 +12724,7 @@
         <v>2769</v>
       </c>
       <c r="I278" s="1">
-        <f t="shared" ref="I278:I301" si="18">I277</f>
+        <f t="shared" ref="I278:I341" si="18">I277</f>
         <v>71</v>
       </c>
       <c r="J278" s="1">
@@ -12734,7 +12734,7 @@
         <v>2769</v>
       </c>
       <c r="L278" s="1">
-        <f t="shared" ref="L278:L301" si="19">L277</f>
+        <f t="shared" ref="L278:L341" si="19">L277</f>
         <v>82</v>
       </c>
       <c r="M278" s="1">
@@ -13751,6 +13751,2206 @@
       </c>
       <c r="M301" s="1">
         <v>2.9999999999999898</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C302" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D302" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E302" s="2">
+        <v>3010</v>
+      </c>
+      <c r="F302" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G302" s="1">
+        <v>3.00999999999999</v>
+      </c>
+      <c r="H302" s="2">
+        <v>3009</v>
+      </c>
+      <c r="I302" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J302" s="1">
+        <v>3.00999999999999</v>
+      </c>
+      <c r="K302" s="2">
+        <v>3009</v>
+      </c>
+      <c r="L302" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M302" s="1">
+        <v>3.00999999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C303" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D303" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E303" s="2">
+        <v>3020</v>
+      </c>
+      <c r="F303" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G303" s="1">
+        <v>3.0199999999999898</v>
+      </c>
+      <c r="H303" s="2">
+        <v>3019</v>
+      </c>
+      <c r="I303" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J303" s="1">
+        <v>3.0199999999999898</v>
+      </c>
+      <c r="K303" s="2">
+        <v>3019</v>
+      </c>
+      <c r="L303" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M303" s="1">
+        <v>3.0199999999999898</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C304" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D304" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E304" s="2">
+        <v>3030</v>
+      </c>
+      <c r="F304" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G304" s="1">
+        <v>3.02999999999999</v>
+      </c>
+      <c r="H304" s="2">
+        <v>3029</v>
+      </c>
+      <c r="I304" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J304" s="1">
+        <v>3.02999999999999</v>
+      </c>
+      <c r="K304" s="2">
+        <v>3029</v>
+      </c>
+      <c r="L304" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M304" s="1">
+        <v>3.02999999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C305" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D305" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E305" s="2">
+        <v>3040</v>
+      </c>
+      <c r="F305" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G305" s="1">
+        <v>3.0399999999999898</v>
+      </c>
+      <c r="H305" s="2">
+        <v>3039</v>
+      </c>
+      <c r="I305" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J305" s="1">
+        <v>3.0399999999999898</v>
+      </c>
+      <c r="K305" s="2">
+        <v>3039</v>
+      </c>
+      <c r="L305" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M305" s="1">
+        <v>3.0399999999999898</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C306" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D306" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E306" s="2">
+        <v>3050</v>
+      </c>
+      <c r="F306" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G306" s="1">
+        <v>3.0499999999999901</v>
+      </c>
+      <c r="H306" s="2">
+        <v>3049</v>
+      </c>
+      <c r="I306" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J306" s="1">
+        <v>3.0499999999999901</v>
+      </c>
+      <c r="K306" s="2">
+        <v>3049</v>
+      </c>
+      <c r="L306" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M306" s="1">
+        <v>3.0499999999999901</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C307" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D307" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E307" s="2">
+        <v>3060</v>
+      </c>
+      <c r="F307" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G307" s="1">
+        <v>3.0599999999999898</v>
+      </c>
+      <c r="H307" s="2">
+        <v>3059</v>
+      </c>
+      <c r="I307" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J307" s="1">
+        <v>3.0599999999999898</v>
+      </c>
+      <c r="K307" s="2">
+        <v>3059</v>
+      </c>
+      <c r="L307" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M307" s="1">
+        <v>3.0599999999999898</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C308" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D308" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E308" s="2">
+        <v>3070</v>
+      </c>
+      <c r="F308" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G308" s="1">
+        <v>3.0699999999999901</v>
+      </c>
+      <c r="H308" s="2">
+        <v>3069</v>
+      </c>
+      <c r="I308" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J308" s="1">
+        <v>3.0699999999999901</v>
+      </c>
+      <c r="K308" s="2">
+        <v>3069</v>
+      </c>
+      <c r="L308" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M308" s="1">
+        <v>3.0699999999999901</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C309" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D309" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E309" s="2">
+        <v>3080</v>
+      </c>
+      <c r="F309" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G309" s="1">
+        <v>3.0799999999999899</v>
+      </c>
+      <c r="H309" s="2">
+        <v>3079</v>
+      </c>
+      <c r="I309" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J309" s="1">
+        <v>3.0799999999999899</v>
+      </c>
+      <c r="K309" s="2">
+        <v>3079</v>
+      </c>
+      <c r="L309" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M309" s="1">
+        <v>3.0799999999999899</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C310" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D310" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E310" s="2">
+        <v>3090</v>
+      </c>
+      <c r="F310" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G310" s="1">
+        <v>3.0899999999999901</v>
+      </c>
+      <c r="H310" s="2">
+        <v>3089</v>
+      </c>
+      <c r="I310" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J310" s="1">
+        <v>3.0899999999999901</v>
+      </c>
+      <c r="K310" s="2">
+        <v>3089</v>
+      </c>
+      <c r="L310" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M310" s="1">
+        <v>3.0899999999999901</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C311" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D311" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E311" s="2">
+        <v>3100</v>
+      </c>
+      <c r="F311" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G311" s="1">
+        <v>3.0999999999999899</v>
+      </c>
+      <c r="H311" s="2">
+        <v>3099</v>
+      </c>
+      <c r="I311" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J311" s="1">
+        <v>3.0999999999999899</v>
+      </c>
+      <c r="K311" s="2">
+        <v>3099</v>
+      </c>
+      <c r="L311" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M311" s="1">
+        <v>3.0999999999999899</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C312" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D312" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E312" s="2">
+        <v>3110</v>
+      </c>
+      <c r="F312" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G312" s="1">
+        <v>3.1099999999999901</v>
+      </c>
+      <c r="H312" s="2">
+        <v>3109</v>
+      </c>
+      <c r="I312" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J312" s="1">
+        <v>3.1099999999999901</v>
+      </c>
+      <c r="K312" s="2">
+        <v>3109</v>
+      </c>
+      <c r="L312" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M312" s="1">
+        <v>3.1099999999999901</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C313" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D313" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E313" s="2">
+        <v>3120</v>
+      </c>
+      <c r="F313" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G313" s="1">
+        <v>3.1199999999999899</v>
+      </c>
+      <c r="H313" s="2">
+        <v>3119</v>
+      </c>
+      <c r="I313" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J313" s="1">
+        <v>3.1199999999999899</v>
+      </c>
+      <c r="K313" s="2">
+        <v>3119</v>
+      </c>
+      <c r="L313" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M313" s="1">
+        <v>3.1199999999999899</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C314" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D314" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E314" s="2">
+        <v>3130</v>
+      </c>
+      <c r="F314" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G314" s="1">
+        <v>3.1299999999999901</v>
+      </c>
+      <c r="H314" s="2">
+        <v>3129</v>
+      </c>
+      <c r="I314" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J314" s="1">
+        <v>3.1299999999999901</v>
+      </c>
+      <c r="K314" s="2">
+        <v>3129</v>
+      </c>
+      <c r="L314" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M314" s="1">
+        <v>3.1299999999999901</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C315" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D315" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E315" s="2">
+        <v>3140</v>
+      </c>
+      <c r="F315" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G315" s="1">
+        <v>3.1399999999999899</v>
+      </c>
+      <c r="H315" s="2">
+        <v>3139</v>
+      </c>
+      <c r="I315" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J315" s="1">
+        <v>3.1399999999999899</v>
+      </c>
+      <c r="K315" s="2">
+        <v>3139</v>
+      </c>
+      <c r="L315" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M315" s="1">
+        <v>3.1399999999999899</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C316" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D316" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E316" s="2">
+        <v>3150</v>
+      </c>
+      <c r="F316" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G316" s="1">
+        <v>3.1499999999999901</v>
+      </c>
+      <c r="H316" s="2">
+        <v>3149</v>
+      </c>
+      <c r="I316" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J316" s="1">
+        <v>3.1499999999999901</v>
+      </c>
+      <c r="K316" s="2">
+        <v>3149</v>
+      </c>
+      <c r="L316" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M316" s="1">
+        <v>3.1499999999999901</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C317" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D317" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E317" s="2">
+        <v>3160</v>
+      </c>
+      <c r="F317" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G317" s="1">
+        <v>3.1599999999999899</v>
+      </c>
+      <c r="H317" s="2">
+        <v>3159</v>
+      </c>
+      <c r="I317" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J317" s="1">
+        <v>3.1599999999999899</v>
+      </c>
+      <c r="K317" s="2">
+        <v>3159</v>
+      </c>
+      <c r="L317" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M317" s="1">
+        <v>3.1599999999999899</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C318" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D318" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E318" s="2">
+        <v>3170</v>
+      </c>
+      <c r="F318" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G318" s="1">
+        <v>3.1699999999999902</v>
+      </c>
+      <c r="H318" s="2">
+        <v>3169</v>
+      </c>
+      <c r="I318" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J318" s="1">
+        <v>3.1699999999999902</v>
+      </c>
+      <c r="K318" s="2">
+        <v>3169</v>
+      </c>
+      <c r="L318" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M318" s="1">
+        <v>3.1699999999999902</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C319" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D319" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E319" s="2">
+        <v>3180</v>
+      </c>
+      <c r="F319" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G319" s="1">
+        <v>3.1799999999999802</v>
+      </c>
+      <c r="H319" s="2">
+        <v>3179</v>
+      </c>
+      <c r="I319" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J319" s="1">
+        <v>3.1799999999999802</v>
+      </c>
+      <c r="K319" s="2">
+        <v>3179</v>
+      </c>
+      <c r="L319" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M319" s="1">
+        <v>3.1799999999999802</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C320" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D320" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E320" s="2">
+        <v>3190</v>
+      </c>
+      <c r="F320" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G320" s="1">
+        <v>3.18999999999998</v>
+      </c>
+      <c r="H320" s="2">
+        <v>3189</v>
+      </c>
+      <c r="I320" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J320" s="1">
+        <v>3.18999999999998</v>
+      </c>
+      <c r="K320" s="2">
+        <v>3189</v>
+      </c>
+      <c r="L320" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M320" s="1">
+        <v>3.18999999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C321" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D321" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E321" s="2">
+        <v>3200</v>
+      </c>
+      <c r="F321" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G321" s="1">
+        <v>3.1999999999999802</v>
+      </c>
+      <c r="H321" s="2">
+        <v>3199</v>
+      </c>
+      <c r="I321" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J321" s="1">
+        <v>3.1999999999999802</v>
+      </c>
+      <c r="K321" s="2">
+        <v>3199</v>
+      </c>
+      <c r="L321" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M321" s="1">
+        <v>3.1999999999999802</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C322" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D322" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E322" s="2">
+        <v>3210</v>
+      </c>
+      <c r="F322" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G322" s="1">
+        <v>3.20999999999998</v>
+      </c>
+      <c r="H322" s="2">
+        <v>3209</v>
+      </c>
+      <c r="I322" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J322" s="1">
+        <v>3.20999999999998</v>
+      </c>
+      <c r="K322" s="2">
+        <v>3209</v>
+      </c>
+      <c r="L322" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M322" s="1">
+        <v>3.20999999999998</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C323" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D323" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E323" s="2">
+        <v>3220</v>
+      </c>
+      <c r="F323" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G323" s="1">
+        <v>3.2199999999999802</v>
+      </c>
+      <c r="H323" s="2">
+        <v>3219</v>
+      </c>
+      <c r="I323" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J323" s="1">
+        <v>3.2199999999999802</v>
+      </c>
+      <c r="K323" s="2">
+        <v>3219</v>
+      </c>
+      <c r="L323" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M323" s="1">
+        <v>3.2199999999999802</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C324" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D324" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E324" s="2">
+        <v>3230</v>
+      </c>
+      <c r="F324" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G324" s="1">
+        <v>3.22999999999998</v>
+      </c>
+      <c r="H324" s="2">
+        <v>3229</v>
+      </c>
+      <c r="I324" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J324" s="1">
+        <v>3.22999999999998</v>
+      </c>
+      <c r="K324" s="2">
+        <v>3229</v>
+      </c>
+      <c r="L324" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M324" s="1">
+        <v>3.22999999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C325" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D325" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E325" s="2">
+        <v>3240</v>
+      </c>
+      <c r="F325" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G325" s="1">
+        <v>3.2399999999999798</v>
+      </c>
+      <c r="H325" s="2">
+        <v>3239</v>
+      </c>
+      <c r="I325" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J325" s="1">
+        <v>3.2399999999999798</v>
+      </c>
+      <c r="K325" s="2">
+        <v>3239</v>
+      </c>
+      <c r="L325" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M325" s="1">
+        <v>3.2399999999999798</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C326" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D326" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E326" s="2">
+        <v>3250</v>
+      </c>
+      <c r="F326" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G326" s="1">
+        <v>3.24999999999998</v>
+      </c>
+      <c r="H326" s="2">
+        <v>3249</v>
+      </c>
+      <c r="I326" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J326" s="1">
+        <v>3.24999999999998</v>
+      </c>
+      <c r="K326" s="2">
+        <v>3249</v>
+      </c>
+      <c r="L326" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M326" s="1">
+        <v>3.24999999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C327" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D327" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E327" s="2">
+        <v>3260</v>
+      </c>
+      <c r="F327" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G327" s="1">
+        <v>3.2599999999999798</v>
+      </c>
+      <c r="H327" s="2">
+        <v>3259</v>
+      </c>
+      <c r="I327" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J327" s="1">
+        <v>3.2599999999999798</v>
+      </c>
+      <c r="K327" s="2">
+        <v>3259</v>
+      </c>
+      <c r="L327" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M327" s="1">
+        <v>3.2599999999999798</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C328" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D328" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E328" s="2">
+        <v>3270</v>
+      </c>
+      <c r="F328" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G328" s="1">
+        <v>3.26999999999998</v>
+      </c>
+      <c r="H328" s="2">
+        <v>3269</v>
+      </c>
+      <c r="I328" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J328" s="1">
+        <v>3.26999999999998</v>
+      </c>
+      <c r="K328" s="2">
+        <v>3269</v>
+      </c>
+      <c r="L328" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M328" s="1">
+        <v>3.26999999999998</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C329" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D329" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E329" s="2">
+        <v>3280</v>
+      </c>
+      <c r="F329" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G329" s="1">
+        <v>3.2799999999999798</v>
+      </c>
+      <c r="H329" s="2">
+        <v>3279</v>
+      </c>
+      <c r="I329" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J329" s="1">
+        <v>3.2799999999999798</v>
+      </c>
+      <c r="K329" s="2">
+        <v>3279</v>
+      </c>
+      <c r="L329" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M329" s="1">
+        <v>3.2799999999999798</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C330" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D330" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E330" s="2">
+        <v>3290</v>
+      </c>
+      <c r="F330" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G330" s="1">
+        <v>3.2899999999999801</v>
+      </c>
+      <c r="H330" s="2">
+        <v>3289</v>
+      </c>
+      <c r="I330" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J330" s="1">
+        <v>3.2899999999999801</v>
+      </c>
+      <c r="K330" s="2">
+        <v>3289</v>
+      </c>
+      <c r="L330" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M330" s="1">
+        <v>3.2899999999999801</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C331" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D331" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E331" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F331" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G331" s="1">
+        <v>3.2999999999999798</v>
+      </c>
+      <c r="H331" s="2">
+        <v>3299</v>
+      </c>
+      <c r="I331" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J331" s="1">
+        <v>3.2999999999999798</v>
+      </c>
+      <c r="K331" s="2">
+        <v>3299</v>
+      </c>
+      <c r="L331" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M331" s="1">
+        <v>3.2999999999999798</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C332" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D332" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E332" s="2">
+        <v>3310</v>
+      </c>
+      <c r="F332" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G332" s="1">
+        <v>3.3099999999999801</v>
+      </c>
+      <c r="H332" s="2">
+        <v>3309</v>
+      </c>
+      <c r="I332" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J332" s="1">
+        <v>3.3099999999999801</v>
+      </c>
+      <c r="K332" s="2">
+        <v>3309</v>
+      </c>
+      <c r="L332" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M332" s="1">
+        <v>3.3099999999999801</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C333" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D333" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E333" s="2">
+        <v>3320</v>
+      </c>
+      <c r="F333" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G333" s="1">
+        <v>3.3199999999999799</v>
+      </c>
+      <c r="H333" s="2">
+        <v>3319</v>
+      </c>
+      <c r="I333" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J333" s="1">
+        <v>3.3199999999999799</v>
+      </c>
+      <c r="K333" s="2">
+        <v>3319</v>
+      </c>
+      <c r="L333" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M333" s="1">
+        <v>3.3199999999999799</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C334" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D334" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E334" s="2">
+        <v>3330</v>
+      </c>
+      <c r="F334" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G334" s="1">
+        <v>3.3299999999999801</v>
+      </c>
+      <c r="H334" s="2">
+        <v>3329</v>
+      </c>
+      <c r="I334" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J334" s="1">
+        <v>3.3299999999999801</v>
+      </c>
+      <c r="K334" s="2">
+        <v>3329</v>
+      </c>
+      <c r="L334" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M334" s="1">
+        <v>3.3299999999999801</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C335" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D335" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E335" s="2">
+        <v>3340</v>
+      </c>
+      <c r="F335" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G335" s="1">
+        <v>3.3399999999999799</v>
+      </c>
+      <c r="H335" s="2">
+        <v>3339</v>
+      </c>
+      <c r="I335" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J335" s="1">
+        <v>3.3399999999999799</v>
+      </c>
+      <c r="K335" s="2">
+        <v>3339</v>
+      </c>
+      <c r="L335" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M335" s="1">
+        <v>3.3399999999999799</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C336" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D336" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E336" s="2">
+        <v>3350</v>
+      </c>
+      <c r="F336" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G336" s="1">
+        <v>3.3499999999999801</v>
+      </c>
+      <c r="H336" s="2">
+        <v>3349</v>
+      </c>
+      <c r="I336" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J336" s="1">
+        <v>3.3499999999999801</v>
+      </c>
+      <c r="K336" s="2">
+        <v>3349</v>
+      </c>
+      <c r="L336" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M336" s="1">
+        <v>3.3499999999999801</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C337" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D337" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E337" s="2">
+        <v>3360</v>
+      </c>
+      <c r="F337" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G337" s="1">
+        <v>3.3599999999999799</v>
+      </c>
+      <c r="H337" s="2">
+        <v>3359</v>
+      </c>
+      <c r="I337" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J337" s="1">
+        <v>3.3599999999999799</v>
+      </c>
+      <c r="K337" s="2">
+        <v>3359</v>
+      </c>
+      <c r="L337" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M337" s="1">
+        <v>3.3599999999999799</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C338" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D338" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E338" s="2">
+        <v>3370</v>
+      </c>
+      <c r="F338" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G338" s="1">
+        <v>3.3699999999999801</v>
+      </c>
+      <c r="H338" s="2">
+        <v>3369</v>
+      </c>
+      <c r="I338" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J338" s="1">
+        <v>3.3699999999999801</v>
+      </c>
+      <c r="K338" s="2">
+        <v>3369</v>
+      </c>
+      <c r="L338" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M338" s="1">
+        <v>3.3699999999999801</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C339" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D339" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E339" s="2">
+        <v>3380</v>
+      </c>
+      <c r="F339" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G339" s="1">
+        <v>3.3799999999999799</v>
+      </c>
+      <c r="H339" s="2">
+        <v>3379</v>
+      </c>
+      <c r="I339" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J339" s="1">
+        <v>3.3799999999999799</v>
+      </c>
+      <c r="K339" s="2">
+        <v>3379</v>
+      </c>
+      <c r="L339" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M339" s="1">
+        <v>3.3799999999999799</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C340" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D340" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E340" s="2">
+        <v>3390</v>
+      </c>
+      <c r="F340" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G340" s="1">
+        <v>3.3899999999999801</v>
+      </c>
+      <c r="H340" s="2">
+        <v>3389</v>
+      </c>
+      <c r="I340" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J340" s="1">
+        <v>3.3899999999999801</v>
+      </c>
+      <c r="K340" s="2">
+        <v>3389</v>
+      </c>
+      <c r="L340" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M340" s="1">
+        <v>3.3899999999999801</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C341" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D341" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E341" s="2">
+        <v>3400</v>
+      </c>
+      <c r="F341" s="1">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="G341" s="1">
+        <v>3.3999999999999799</v>
+      </c>
+      <c r="H341" s="2">
+        <v>3399</v>
+      </c>
+      <c r="I341" s="1">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="J341" s="1">
+        <v>3.3999999999999799</v>
+      </c>
+      <c r="K341" s="2">
+        <v>3399</v>
+      </c>
+      <c r="L341" s="1">
+        <f t="shared" si="19"/>
+        <v>82</v>
+      </c>
+      <c r="M341" s="1">
+        <v>3.3999999999999799</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C342" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D342" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E342" s="2">
+        <v>3410</v>
+      </c>
+      <c r="F342" s="1">
+        <f t="shared" ref="F342:F351" si="20">F341</f>
+        <v>70</v>
+      </c>
+      <c r="G342" s="1">
+        <v>3.4099999999999802</v>
+      </c>
+      <c r="H342" s="2">
+        <v>3409</v>
+      </c>
+      <c r="I342" s="1">
+        <f t="shared" ref="I342:I351" si="21">I341</f>
+        <v>71</v>
+      </c>
+      <c r="J342" s="1">
+        <v>3.4099999999999802</v>
+      </c>
+      <c r="K342" s="2">
+        <v>3409</v>
+      </c>
+      <c r="L342" s="1">
+        <f t="shared" ref="L342:L351" si="22">L341</f>
+        <v>82</v>
+      </c>
+      <c r="M342" s="1">
+        <v>3.4099999999999802</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C343" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D343" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E343" s="2">
+        <v>3420</v>
+      </c>
+      <c r="F343" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G343" s="1">
+        <v>3.4199999999999799</v>
+      </c>
+      <c r="H343" s="2">
+        <v>3419</v>
+      </c>
+      <c r="I343" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J343" s="1">
+        <v>3.4199999999999799</v>
+      </c>
+      <c r="K343" s="2">
+        <v>3419</v>
+      </c>
+      <c r="L343" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M343" s="1">
+        <v>3.4199999999999799</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C344" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D344" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E344" s="2">
+        <v>3430</v>
+      </c>
+      <c r="F344" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G344" s="1">
+        <v>3.4299999999999802</v>
+      </c>
+      <c r="H344" s="2">
+        <v>3429</v>
+      </c>
+      <c r="I344" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J344" s="1">
+        <v>3.4299999999999802</v>
+      </c>
+      <c r="K344" s="2">
+        <v>3429</v>
+      </c>
+      <c r="L344" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M344" s="1">
+        <v>3.4299999999999802</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C345" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D345" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E345" s="2">
+        <v>3440</v>
+      </c>
+      <c r="F345" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G345" s="1">
+        <v>3.43999999999998</v>
+      </c>
+      <c r="H345" s="2">
+        <v>3439</v>
+      </c>
+      <c r="I345" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J345" s="1">
+        <v>3.43999999999998</v>
+      </c>
+      <c r="K345" s="2">
+        <v>3439</v>
+      </c>
+      <c r="L345" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M345" s="1">
+        <v>3.43999999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C346" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D346" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E346" s="2">
+        <v>3450</v>
+      </c>
+      <c r="F346" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G346" s="1">
+        <v>3.4499999999999802</v>
+      </c>
+      <c r="H346" s="2">
+        <v>3449</v>
+      </c>
+      <c r="I346" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J346" s="1">
+        <v>3.4499999999999802</v>
+      </c>
+      <c r="K346" s="2">
+        <v>3449</v>
+      </c>
+      <c r="L346" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M346" s="1">
+        <v>3.4499999999999802</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C347" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D347" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E347" s="2">
+        <v>3460</v>
+      </c>
+      <c r="F347" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G347" s="1">
+        <v>3.45999999999998</v>
+      </c>
+      <c r="H347" s="2">
+        <v>3459</v>
+      </c>
+      <c r="I347" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J347" s="1">
+        <v>3.45999999999998</v>
+      </c>
+      <c r="K347" s="2">
+        <v>3459</v>
+      </c>
+      <c r="L347" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M347" s="1">
+        <v>3.45999999999998</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C348" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D348" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E348" s="2">
+        <v>3470</v>
+      </c>
+      <c r="F348" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G348" s="1">
+        <v>3.4699999999999802</v>
+      </c>
+      <c r="H348" s="2">
+        <v>3469</v>
+      </c>
+      <c r="I348" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J348" s="1">
+        <v>3.4699999999999802</v>
+      </c>
+      <c r="K348" s="2">
+        <v>3469</v>
+      </c>
+      <c r="L348" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M348" s="1">
+        <v>3.4699999999999802</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C349" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D349" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E349" s="2">
+        <v>3480</v>
+      </c>
+      <c r="F349" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G349" s="1">
+        <v>3.47999999999998</v>
+      </c>
+      <c r="H349" s="2">
+        <v>3479</v>
+      </c>
+      <c r="I349" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J349" s="1">
+        <v>3.47999999999998</v>
+      </c>
+      <c r="K349" s="2">
+        <v>3479</v>
+      </c>
+      <c r="L349" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M349" s="1">
+        <v>3.47999999999998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C350" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D350" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E350" s="2">
+        <v>3490</v>
+      </c>
+      <c r="F350" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G350" s="1">
+        <v>3.4899999999999798</v>
+      </c>
+      <c r="H350" s="2">
+        <v>3489</v>
+      </c>
+      <c r="I350" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J350" s="1">
+        <v>3.4899999999999798</v>
+      </c>
+      <c r="K350" s="2">
+        <v>3489</v>
+      </c>
+      <c r="L350" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M350" s="1">
+        <v>3.4899999999999798</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C351" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D351" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E351" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F351" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G351" s="1">
+        <v>3.49999999999998</v>
+      </c>
+      <c r="H351" s="2">
+        <v>3499</v>
+      </c>
+      <c r="I351" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J351" s="1">
+        <v>3.49999999999998</v>
+      </c>
+      <c r="K351" s="2">
+        <v>3499</v>
+      </c>
+      <c r="L351" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M351" s="1">
+        <v>3.49999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicSpecial.xlsx
+++ b/Assets/06.Table/RelicSpecial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD741D-2313-474F-B8B5-6DD9E7F60068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1A4BC4-C886-4ABB-BFE4-A376F72B1B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -472,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M351"/>
+  <dimension ref="A1:M401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J341" sqref="J341"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K380" sqref="K380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15530,7 +15530,7 @@
         <v>3410</v>
       </c>
       <c r="F342" s="1">
-        <f t="shared" ref="F342:F351" si="20">F341</f>
+        <f t="shared" ref="F342:F401" si="20">F341</f>
         <v>70</v>
       </c>
       <c r="G342" s="1">
@@ -15540,7 +15540,7 @@
         <v>3409</v>
       </c>
       <c r="I342" s="1">
-        <f t="shared" ref="I342:I351" si="21">I341</f>
+        <f t="shared" ref="I342:I401" si="21">I341</f>
         <v>71</v>
       </c>
       <c r="J342" s="1">
@@ -15550,7 +15550,7 @@
         <v>3409</v>
       </c>
       <c r="L342" s="1">
-        <f t="shared" ref="L342:L351" si="22">L341</f>
+        <f t="shared" ref="L342:L401" si="22">L341</f>
         <v>82</v>
       </c>
       <c r="M342" s="1">
@@ -15951,6 +15951,2206 @@
       </c>
       <c r="M351" s="1">
         <v>3.49999999999998</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C352" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D352" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E352" s="2">
+        <v>3510</v>
+      </c>
+      <c r="F352" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G352" s="1">
+        <v>3.5099999999999798</v>
+      </c>
+      <c r="H352" s="2">
+        <v>3509</v>
+      </c>
+      <c r="I352" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J352" s="1">
+        <v>3.5099999999999798</v>
+      </c>
+      <c r="K352" s="2">
+        <v>3509</v>
+      </c>
+      <c r="L352" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M352" s="1">
+        <v>3.5099999999999798</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C353" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D353" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E353" s="2">
+        <v>3520</v>
+      </c>
+      <c r="F353" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G353" s="1">
+        <v>3.51999999999998</v>
+      </c>
+      <c r="H353" s="2">
+        <v>3519</v>
+      </c>
+      <c r="I353" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J353" s="1">
+        <v>3.51999999999998</v>
+      </c>
+      <c r="K353" s="2">
+        <v>3519</v>
+      </c>
+      <c r="L353" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M353" s="1">
+        <v>3.51999999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C354" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D354" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E354" s="2">
+        <v>3530</v>
+      </c>
+      <c r="F354" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G354" s="1">
+        <v>3.5299999999999798</v>
+      </c>
+      <c r="H354" s="2">
+        <v>3529</v>
+      </c>
+      <c r="I354" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J354" s="1">
+        <v>3.5299999999999798</v>
+      </c>
+      <c r="K354" s="2">
+        <v>3529</v>
+      </c>
+      <c r="L354" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M354" s="1">
+        <v>3.5299999999999798</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C355" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D355" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E355" s="2">
+        <v>3540</v>
+      </c>
+      <c r="F355" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G355" s="1">
+        <v>3.5399999999999801</v>
+      </c>
+      <c r="H355" s="2">
+        <v>3539</v>
+      </c>
+      <c r="I355" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J355" s="1">
+        <v>3.5399999999999801</v>
+      </c>
+      <c r="K355" s="2">
+        <v>3539</v>
+      </c>
+      <c r="L355" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M355" s="1">
+        <v>3.5399999999999801</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C356" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D356" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E356" s="2">
+        <v>3550</v>
+      </c>
+      <c r="F356" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G356" s="1">
+        <v>3.5499999999999798</v>
+      </c>
+      <c r="H356" s="2">
+        <v>3549</v>
+      </c>
+      <c r="I356" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J356" s="1">
+        <v>3.5499999999999798</v>
+      </c>
+      <c r="K356" s="2">
+        <v>3549</v>
+      </c>
+      <c r="L356" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M356" s="1">
+        <v>3.5499999999999798</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C357" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D357" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E357" s="2">
+        <v>3560</v>
+      </c>
+      <c r="F357" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G357" s="1">
+        <v>3.5599999999999801</v>
+      </c>
+      <c r="H357" s="2">
+        <v>3559</v>
+      </c>
+      <c r="I357" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J357" s="1">
+        <v>3.5599999999999801</v>
+      </c>
+      <c r="K357" s="2">
+        <v>3559</v>
+      </c>
+      <c r="L357" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M357" s="1">
+        <v>3.5599999999999801</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C358" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D358" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E358" s="2">
+        <v>3570</v>
+      </c>
+      <c r="F358" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G358" s="1">
+        <v>3.5699999999999799</v>
+      </c>
+      <c r="H358" s="2">
+        <v>3569</v>
+      </c>
+      <c r="I358" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J358" s="1">
+        <v>3.5699999999999799</v>
+      </c>
+      <c r="K358" s="2">
+        <v>3569</v>
+      </c>
+      <c r="L358" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M358" s="1">
+        <v>3.5699999999999799</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C359" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D359" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E359" s="2">
+        <v>3580</v>
+      </c>
+      <c r="F359" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G359" s="1">
+        <v>3.5799999999999801</v>
+      </c>
+      <c r="H359" s="2">
+        <v>3579</v>
+      </c>
+      <c r="I359" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J359" s="1">
+        <v>3.5799999999999801</v>
+      </c>
+      <c r="K359" s="2">
+        <v>3579</v>
+      </c>
+      <c r="L359" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M359" s="1">
+        <v>3.5799999999999801</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C360" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D360" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E360" s="2">
+        <v>3590</v>
+      </c>
+      <c r="F360" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G360" s="1">
+        <v>3.5899999999999799</v>
+      </c>
+      <c r="H360" s="2">
+        <v>3589</v>
+      </c>
+      <c r="I360" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J360" s="1">
+        <v>3.5899999999999799</v>
+      </c>
+      <c r="K360" s="2">
+        <v>3589</v>
+      </c>
+      <c r="L360" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M360" s="1">
+        <v>3.5899999999999799</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C361" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D361" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E361" s="2">
+        <v>3600</v>
+      </c>
+      <c r="F361" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G361" s="1">
+        <v>3.5999999999999801</v>
+      </c>
+      <c r="H361" s="2">
+        <v>3599</v>
+      </c>
+      <c r="I361" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J361" s="1">
+        <v>3.5999999999999801</v>
+      </c>
+      <c r="K361" s="2">
+        <v>3599</v>
+      </c>
+      <c r="L361" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M361" s="1">
+        <v>3.5999999999999801</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C362" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D362" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E362" s="2">
+        <v>3610</v>
+      </c>
+      <c r="F362" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G362" s="1">
+        <v>3.6099999999999799</v>
+      </c>
+      <c r="H362" s="2">
+        <v>3609</v>
+      </c>
+      <c r="I362" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J362" s="1">
+        <v>3.6099999999999799</v>
+      </c>
+      <c r="K362" s="2">
+        <v>3609</v>
+      </c>
+      <c r="L362" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M362" s="1">
+        <v>3.6099999999999799</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C363" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D363" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E363" s="2">
+        <v>3620</v>
+      </c>
+      <c r="F363" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G363" s="1">
+        <v>3.6199999999999801</v>
+      </c>
+      <c r="H363" s="2">
+        <v>3619</v>
+      </c>
+      <c r="I363" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J363" s="1">
+        <v>3.6199999999999801</v>
+      </c>
+      <c r="K363" s="2">
+        <v>3619</v>
+      </c>
+      <c r="L363" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M363" s="1">
+        <v>3.6199999999999801</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C364" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D364" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E364" s="2">
+        <v>3630</v>
+      </c>
+      <c r="F364" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G364" s="1">
+        <v>3.6299999999999799</v>
+      </c>
+      <c r="H364" s="2">
+        <v>3629</v>
+      </c>
+      <c r="I364" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J364" s="1">
+        <v>3.6299999999999799</v>
+      </c>
+      <c r="K364" s="2">
+        <v>3629</v>
+      </c>
+      <c r="L364" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M364" s="1">
+        <v>3.6299999999999799</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C365" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D365" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E365" s="2">
+        <v>3640</v>
+      </c>
+      <c r="F365" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G365" s="1">
+        <v>3.6399999999999801</v>
+      </c>
+      <c r="H365" s="2">
+        <v>3639</v>
+      </c>
+      <c r="I365" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J365" s="1">
+        <v>3.6399999999999801</v>
+      </c>
+      <c r="K365" s="2">
+        <v>3639</v>
+      </c>
+      <c r="L365" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M365" s="1">
+        <v>3.6399999999999801</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C366" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D366" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E366" s="2">
+        <v>3650</v>
+      </c>
+      <c r="F366" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G366" s="1">
+        <v>3.6499999999999799</v>
+      </c>
+      <c r="H366" s="2">
+        <v>3649</v>
+      </c>
+      <c r="I366" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J366" s="1">
+        <v>3.6499999999999799</v>
+      </c>
+      <c r="K366" s="2">
+        <v>3649</v>
+      </c>
+      <c r="L366" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M366" s="1">
+        <v>3.6499999999999799</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C367" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D367" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E367" s="2">
+        <v>3660</v>
+      </c>
+      <c r="F367" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G367" s="1">
+        <v>3.6599999999999802</v>
+      </c>
+      <c r="H367" s="2">
+        <v>3659</v>
+      </c>
+      <c r="I367" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J367" s="1">
+        <v>3.6599999999999802</v>
+      </c>
+      <c r="K367" s="2">
+        <v>3659</v>
+      </c>
+      <c r="L367" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M367" s="1">
+        <v>3.6599999999999802</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C368" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D368" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E368" s="2">
+        <v>3670</v>
+      </c>
+      <c r="F368" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G368" s="1">
+        <v>3.6699999999999702</v>
+      </c>
+      <c r="H368" s="2">
+        <v>3669</v>
+      </c>
+      <c r="I368" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J368" s="1">
+        <v>3.6699999999999702</v>
+      </c>
+      <c r="K368" s="2">
+        <v>3669</v>
+      </c>
+      <c r="L368" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M368" s="1">
+        <v>3.6699999999999702</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C369" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D369" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E369" s="2">
+        <v>3680</v>
+      </c>
+      <c r="F369" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G369" s="1">
+        <v>3.67999999999997</v>
+      </c>
+      <c r="H369" s="2">
+        <v>3679</v>
+      </c>
+      <c r="I369" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J369" s="1">
+        <v>3.67999999999997</v>
+      </c>
+      <c r="K369" s="2">
+        <v>3679</v>
+      </c>
+      <c r="L369" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M369" s="1">
+        <v>3.67999999999997</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C370" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D370" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E370" s="2">
+        <v>3690</v>
+      </c>
+      <c r="F370" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G370" s="1">
+        <v>3.6899999999999702</v>
+      </c>
+      <c r="H370" s="2">
+        <v>3689</v>
+      </c>
+      <c r="I370" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J370" s="1">
+        <v>3.6899999999999702</v>
+      </c>
+      <c r="K370" s="2">
+        <v>3689</v>
+      </c>
+      <c r="L370" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M370" s="1">
+        <v>3.6899999999999702</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C371" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D371" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E371" s="2">
+        <v>3700</v>
+      </c>
+      <c r="F371" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G371" s="1">
+        <v>3.69999999999997</v>
+      </c>
+      <c r="H371" s="2">
+        <v>3699</v>
+      </c>
+      <c r="I371" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J371" s="1">
+        <v>3.69999999999997</v>
+      </c>
+      <c r="K371" s="2">
+        <v>3699</v>
+      </c>
+      <c r="L371" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M371" s="1">
+        <v>3.69999999999997</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C372" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D372" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E372" s="2">
+        <v>3710</v>
+      </c>
+      <c r="F372" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G372" s="1">
+        <v>3.7099999999999702</v>
+      </c>
+      <c r="H372" s="2">
+        <v>3709</v>
+      </c>
+      <c r="I372" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J372" s="1">
+        <v>3.7099999999999702</v>
+      </c>
+      <c r="K372" s="2">
+        <v>3709</v>
+      </c>
+      <c r="L372" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M372" s="1">
+        <v>3.7099999999999702</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C373" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D373" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E373" s="2">
+        <v>3720</v>
+      </c>
+      <c r="F373" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G373" s="1">
+        <v>3.71999999999997</v>
+      </c>
+      <c r="H373" s="2">
+        <v>3719</v>
+      </c>
+      <c r="I373" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J373" s="1">
+        <v>3.71999999999997</v>
+      </c>
+      <c r="K373" s="2">
+        <v>3719</v>
+      </c>
+      <c r="L373" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M373" s="1">
+        <v>3.71999999999997</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C374" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D374" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E374" s="2">
+        <v>3730</v>
+      </c>
+      <c r="F374" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G374" s="1">
+        <v>3.7299999999999698</v>
+      </c>
+      <c r="H374" s="2">
+        <v>3729</v>
+      </c>
+      <c r="I374" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J374" s="1">
+        <v>3.7299999999999698</v>
+      </c>
+      <c r="K374" s="2">
+        <v>3729</v>
+      </c>
+      <c r="L374" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M374" s="1">
+        <v>3.7299999999999698</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C375" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D375" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E375" s="2">
+        <v>3740</v>
+      </c>
+      <c r="F375" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G375" s="1">
+        <v>3.73999999999997</v>
+      </c>
+      <c r="H375" s="2">
+        <v>3739</v>
+      </c>
+      <c r="I375" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J375" s="1">
+        <v>3.73999999999997</v>
+      </c>
+      <c r="K375" s="2">
+        <v>3739</v>
+      </c>
+      <c r="L375" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M375" s="1">
+        <v>3.73999999999997</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C376" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D376" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E376" s="2">
+        <v>3750</v>
+      </c>
+      <c r="F376" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G376" s="1">
+        <v>3.7499999999999698</v>
+      </c>
+      <c r="H376" s="2">
+        <v>3749</v>
+      </c>
+      <c r="I376" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J376" s="1">
+        <v>3.7499999999999698</v>
+      </c>
+      <c r="K376" s="2">
+        <v>3749</v>
+      </c>
+      <c r="L376" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M376" s="1">
+        <v>3.7499999999999698</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C377" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D377" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E377" s="2">
+        <v>3760</v>
+      </c>
+      <c r="F377" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G377" s="1">
+        <v>3.75999999999997</v>
+      </c>
+      <c r="H377" s="2">
+        <v>3759</v>
+      </c>
+      <c r="I377" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J377" s="1">
+        <v>3.75999999999997</v>
+      </c>
+      <c r="K377" s="2">
+        <v>3759</v>
+      </c>
+      <c r="L377" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M377" s="1">
+        <v>3.75999999999997</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C378" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D378" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E378" s="2">
+        <v>3770</v>
+      </c>
+      <c r="F378" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G378" s="1">
+        <v>3.7699999999999698</v>
+      </c>
+      <c r="H378" s="2">
+        <v>3769</v>
+      </c>
+      <c r="I378" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J378" s="1">
+        <v>3.7699999999999698</v>
+      </c>
+      <c r="K378" s="2">
+        <v>3769</v>
+      </c>
+      <c r="L378" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M378" s="1">
+        <v>3.7699999999999698</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C379" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D379" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E379" s="2">
+        <v>3780</v>
+      </c>
+      <c r="F379" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G379" s="1">
+        <v>3.7799999999999701</v>
+      </c>
+      <c r="H379" s="2">
+        <v>3779</v>
+      </c>
+      <c r="I379" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J379" s="1">
+        <v>3.7799999999999701</v>
+      </c>
+      <c r="K379" s="2">
+        <v>3779</v>
+      </c>
+      <c r="L379" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M379" s="1">
+        <v>3.7799999999999701</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C380" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D380" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E380" s="2">
+        <v>3790</v>
+      </c>
+      <c r="F380" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G380" s="1">
+        <v>3.7899999999999698</v>
+      </c>
+      <c r="H380" s="2">
+        <v>3789</v>
+      </c>
+      <c r="I380" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J380" s="1">
+        <v>3.7899999999999698</v>
+      </c>
+      <c r="K380" s="2">
+        <v>3789</v>
+      </c>
+      <c r="L380" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M380" s="1">
+        <v>3.7899999999999698</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C381" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D381" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E381" s="2">
+        <v>3800</v>
+      </c>
+      <c r="F381" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G381" s="1">
+        <v>3.7999999999999701</v>
+      </c>
+      <c r="H381" s="2">
+        <v>3799</v>
+      </c>
+      <c r="I381" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J381" s="1">
+        <v>3.7999999999999701</v>
+      </c>
+      <c r="K381" s="2">
+        <v>3799</v>
+      </c>
+      <c r="L381" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M381" s="1">
+        <v>3.7999999999999701</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C382" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D382" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E382" s="2">
+        <v>3810</v>
+      </c>
+      <c r="F382" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G382" s="1">
+        <v>3.8099999999999699</v>
+      </c>
+      <c r="H382" s="2">
+        <v>3809</v>
+      </c>
+      <c r="I382" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J382" s="1">
+        <v>3.8099999999999699</v>
+      </c>
+      <c r="K382" s="2">
+        <v>3809</v>
+      </c>
+      <c r="L382" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M382" s="1">
+        <v>3.8099999999999699</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C383" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D383" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E383" s="2">
+        <v>3820</v>
+      </c>
+      <c r="F383" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G383" s="1">
+        <v>3.8199999999999701</v>
+      </c>
+      <c r="H383" s="2">
+        <v>3819</v>
+      </c>
+      <c r="I383" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J383" s="1">
+        <v>3.8199999999999701</v>
+      </c>
+      <c r="K383" s="2">
+        <v>3819</v>
+      </c>
+      <c r="L383" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M383" s="1">
+        <v>3.8199999999999701</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C384" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D384" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E384" s="2">
+        <v>3830</v>
+      </c>
+      <c r="F384" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G384" s="1">
+        <v>3.8299999999999699</v>
+      </c>
+      <c r="H384" s="2">
+        <v>3829</v>
+      </c>
+      <c r="I384" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J384" s="1">
+        <v>3.8299999999999699</v>
+      </c>
+      <c r="K384" s="2">
+        <v>3829</v>
+      </c>
+      <c r="L384" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M384" s="1">
+        <v>3.8299999999999699</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C385" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D385" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E385" s="2">
+        <v>3840</v>
+      </c>
+      <c r="F385" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G385" s="1">
+        <v>3.8399999999999701</v>
+      </c>
+      <c r="H385" s="2">
+        <v>3839</v>
+      </c>
+      <c r="I385" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J385" s="1">
+        <v>3.8399999999999701</v>
+      </c>
+      <c r="K385" s="2">
+        <v>3839</v>
+      </c>
+      <c r="L385" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M385" s="1">
+        <v>3.8399999999999701</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C386" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D386" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E386" s="2">
+        <v>3850</v>
+      </c>
+      <c r="F386" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G386" s="1">
+        <v>3.8499999999999699</v>
+      </c>
+      <c r="H386" s="2">
+        <v>3849</v>
+      </c>
+      <c r="I386" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J386" s="1">
+        <v>3.8499999999999699</v>
+      </c>
+      <c r="K386" s="2">
+        <v>3849</v>
+      </c>
+      <c r="L386" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M386" s="1">
+        <v>3.8499999999999699</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C387" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D387" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E387" s="2">
+        <v>3860</v>
+      </c>
+      <c r="F387" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G387" s="1">
+        <v>3.8599999999999701</v>
+      </c>
+      <c r="H387" s="2">
+        <v>3859</v>
+      </c>
+      <c r="I387" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J387" s="1">
+        <v>3.8599999999999701</v>
+      </c>
+      <c r="K387" s="2">
+        <v>3859</v>
+      </c>
+      <c r="L387" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M387" s="1">
+        <v>3.8599999999999701</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C388" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D388" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E388" s="2">
+        <v>3870</v>
+      </c>
+      <c r="F388" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G388" s="1">
+        <v>3.8699999999999699</v>
+      </c>
+      <c r="H388" s="2">
+        <v>3869</v>
+      </c>
+      <c r="I388" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J388" s="1">
+        <v>3.8699999999999699</v>
+      </c>
+      <c r="K388" s="2">
+        <v>3869</v>
+      </c>
+      <c r="L388" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M388" s="1">
+        <v>3.8699999999999699</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C389" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D389" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E389" s="2">
+        <v>3880</v>
+      </c>
+      <c r="F389" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G389" s="1">
+        <v>3.8799999999999701</v>
+      </c>
+      <c r="H389" s="2">
+        <v>3879</v>
+      </c>
+      <c r="I389" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J389" s="1">
+        <v>3.8799999999999701</v>
+      </c>
+      <c r="K389" s="2">
+        <v>3879</v>
+      </c>
+      <c r="L389" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M389" s="1">
+        <v>3.8799999999999701</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C390" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D390" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E390" s="2">
+        <v>3890</v>
+      </c>
+      <c r="F390" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G390" s="1">
+        <v>3.8899999999999699</v>
+      </c>
+      <c r="H390" s="2">
+        <v>3889</v>
+      </c>
+      <c r="I390" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J390" s="1">
+        <v>3.8899999999999699</v>
+      </c>
+      <c r="K390" s="2">
+        <v>3889</v>
+      </c>
+      <c r="L390" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M390" s="1">
+        <v>3.8899999999999699</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C391" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D391" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E391" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F391" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G391" s="1">
+        <v>3.8999999999999702</v>
+      </c>
+      <c r="H391" s="2">
+        <v>3899</v>
+      </c>
+      <c r="I391" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J391" s="1">
+        <v>3.8999999999999702</v>
+      </c>
+      <c r="K391" s="2">
+        <v>3899</v>
+      </c>
+      <c r="L391" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M391" s="1">
+        <v>3.8999999999999702</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C392" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D392" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E392" s="2">
+        <v>3910</v>
+      </c>
+      <c r="F392" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G392" s="1">
+        <v>3.9099999999999699</v>
+      </c>
+      <c r="H392" s="2">
+        <v>3909</v>
+      </c>
+      <c r="I392" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J392" s="1">
+        <v>3.9099999999999699</v>
+      </c>
+      <c r="K392" s="2">
+        <v>3909</v>
+      </c>
+      <c r="L392" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M392" s="1">
+        <v>3.9099999999999699</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C393" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D393" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E393" s="2">
+        <v>3920</v>
+      </c>
+      <c r="F393" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G393" s="1">
+        <v>3.9199999999999702</v>
+      </c>
+      <c r="H393" s="2">
+        <v>3919</v>
+      </c>
+      <c r="I393" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J393" s="1">
+        <v>3.9199999999999702</v>
+      </c>
+      <c r="K393" s="2">
+        <v>3919</v>
+      </c>
+      <c r="L393" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M393" s="1">
+        <v>3.9199999999999702</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C394" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D394" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E394" s="2">
+        <v>3930</v>
+      </c>
+      <c r="F394" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G394" s="1">
+        <v>3.92999999999997</v>
+      </c>
+      <c r="H394" s="2">
+        <v>3929</v>
+      </c>
+      <c r="I394" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J394" s="1">
+        <v>3.92999999999997</v>
+      </c>
+      <c r="K394" s="2">
+        <v>3929</v>
+      </c>
+      <c r="L394" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M394" s="1">
+        <v>3.92999999999997</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C395" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D395" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E395" s="2">
+        <v>3940</v>
+      </c>
+      <c r="F395" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G395" s="1">
+        <v>3.9399999999999702</v>
+      </c>
+      <c r="H395" s="2">
+        <v>3939</v>
+      </c>
+      <c r="I395" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J395" s="1">
+        <v>3.9399999999999702</v>
+      </c>
+      <c r="K395" s="2">
+        <v>3939</v>
+      </c>
+      <c r="L395" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M395" s="1">
+        <v>3.9399999999999702</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C396" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D396" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E396" s="2">
+        <v>3950</v>
+      </c>
+      <c r="F396" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G396" s="1">
+        <v>3.94999999999997</v>
+      </c>
+      <c r="H396" s="2">
+        <v>3949</v>
+      </c>
+      <c r="I396" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J396" s="1">
+        <v>3.94999999999997</v>
+      </c>
+      <c r="K396" s="2">
+        <v>3949</v>
+      </c>
+      <c r="L396" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M396" s="1">
+        <v>3.94999999999997</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C397" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D397" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E397" s="2">
+        <v>3960</v>
+      </c>
+      <c r="F397" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G397" s="1">
+        <v>3.9599999999999702</v>
+      </c>
+      <c r="H397" s="2">
+        <v>3959</v>
+      </c>
+      <c r="I397" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J397" s="1">
+        <v>3.9599999999999702</v>
+      </c>
+      <c r="K397" s="2">
+        <v>3959</v>
+      </c>
+      <c r="L397" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M397" s="1">
+        <v>3.9599999999999702</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C398" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D398" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E398" s="2">
+        <v>3970</v>
+      </c>
+      <c r="F398" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G398" s="1">
+        <v>3.96999999999997</v>
+      </c>
+      <c r="H398" s="2">
+        <v>3969</v>
+      </c>
+      <c r="I398" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J398" s="1">
+        <v>3.96999999999997</v>
+      </c>
+      <c r="K398" s="2">
+        <v>3969</v>
+      </c>
+      <c r="L398" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M398" s="1">
+        <v>3.96999999999997</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C399" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D399" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E399" s="2">
+        <v>3980</v>
+      </c>
+      <c r="F399" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G399" s="1">
+        <v>3.9799999999999698</v>
+      </c>
+      <c r="H399" s="2">
+        <v>3979</v>
+      </c>
+      <c r="I399" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J399" s="1">
+        <v>3.9799999999999698</v>
+      </c>
+      <c r="K399" s="2">
+        <v>3979</v>
+      </c>
+      <c r="L399" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M399" s="1">
+        <v>3.9799999999999698</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C400" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D400" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E400" s="2">
+        <v>3990</v>
+      </c>
+      <c r="F400" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G400" s="1">
+        <v>3.98999999999997</v>
+      </c>
+      <c r="H400" s="2">
+        <v>3989</v>
+      </c>
+      <c r="I400" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J400" s="1">
+        <v>3.98999999999997</v>
+      </c>
+      <c r="K400" s="2">
+        <v>3989</v>
+      </c>
+      <c r="L400" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M400" s="1">
+        <v>3.98999999999997</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C401" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D401" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E401" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F401" s="1">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="G401" s="1">
+        <v>3.9999999999999698</v>
+      </c>
+      <c r="H401" s="2">
+        <v>3999</v>
+      </c>
+      <c r="I401" s="1">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="J401" s="1">
+        <v>3.9999999999999698</v>
+      </c>
+      <c r="K401" s="2">
+        <v>3999</v>
+      </c>
+      <c r="L401" s="1">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
+      <c r="M401" s="1">
+        <v>3.9999999999999698</v>
       </c>
     </row>
   </sheetData>
